--- a/ingest/apc/files/elsevier_publishing_charge.xlsx
+++ b/ingest/apc/files/elsevier_publishing_charge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casey/PycharmProjects/journalsdb/ingest/apc/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61364100-3B57-D34C-92DF-2A13655D51CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4BDC60-0691-8341-B044-5704AE6456A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19460" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24160" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8981" uniqueCount="5331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8842" uniqueCount="5369">
   <si>
     <t>Article Publishing Charge (APC) price list</t>
   </si>
@@ -16054,6 +16054,120 @@
   </si>
   <si>
     <t>This journal is a peer reviewed, subsidized open access journal where Daping Hospital and the Research Institute of Surgery of the Third Military Medical University pay for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the National Association of Postgraduate Centers in Economics (ANPEC) pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>Egyptian Petroleum Research Institute will pay to make the article open access</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Karabuk University pays the OA fee.</t>
+  </si>
+  <si>
+    <t>The open access Article Publishing Charge (APC) fee will be covered by EURO for articles submitted by 31st December 2022.</t>
+  </si>
+  <si>
+    <t>The open access Article Publishing Charge (APC) fee will be covered by EURO for articles submitted by 31st December 2021</t>
+  </si>
+  <si>
+    <t>Fee waived through 2021</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Chongqing Medical University pays the OA fee. </t>
+  </si>
+  <si>
+    <t>China University of Geosciences (Beijing) and Peking University will pay to make the article open access.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Hellenic Society of Cardiology pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Brazilian Association of Hematology, Hemotherapy and Cell Therapy (ABHH) pays for the publishing costs incurred by the journal. </t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal King Faisal Specialist Hospital and Research Centre pays the OA fee. Authors do not have to pay any open access publication fee.</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the International Association of Traffic and Safety Sciences pays the OA fee. </t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where The Korean Institute of Communications and Sciences Information supports the OA fee.</t>
+  </si>
+  <si>
+    <t>This is a peer reviewed, subsidized open access journal where IFAC, the International Federation of Automatic Control, pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Cardiological Society of India pays for the publishing costs incurred by the journal. </t>
+  </si>
+  <si>
+    <t>The author does not have any publication charges for open access. Indian Institute of Management Bangalore will pay to make the article open access.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Cardiological Society of India pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Indian Heart Rhythm Society pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Korea Institute of Oriental Medicine pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>Waived through 2021</t>
+  </si>
+  <si>
+    <t>per page</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal, King Faisal Specialist Hospital and Research Centre pays the OA fee. </t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Tongji University and Tongji University Press pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>The Japanese Dental Science Review is an open access journal and the journal will bear the cost of publication for all articles. </t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where National Science Museum of Korea and Korea National Arboretum pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This is an open access journal with not publication charges, costs or fees for publication.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where The Chinese Ceramic Society pays the OA fee. </t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Shanghai Jiaotong University pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Department of Otolaryngology Head and Neck Surgery, Chinese PLA General Hospital pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Xi'an Jiaotong University pays the OA fee.</t>
+  </si>
+  <si>
+    <t>Charges EPC</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Chinese Academy of Sciences pays the OA fee.</t>
+  </si>
+  <si>
+    <t>Vietnam National University, Hanoi will pay to make the article open access.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Shanghai University of Sport pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Taibah University pays the OA fee.</t>
+  </si>
+  <si>
+    <t>Open access funded by Ministry of Health and Welfare</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where Beijing University of Chinese Medicine pays for the publishing costs incurred by the journal.</t>
   </si>
 </sst>
 </file>
@@ -16233,15 +16347,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -16252,6 +16357,15 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16643,8 +16757,8 @@
   <dimension ref="A1:H2657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D647" sqref="D647"/>
+      <pane ySplit="4" topLeftCell="A1562" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1580" sqref="K1580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16656,48 +16770,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -16710,7 +16824,7 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>5309</v>
       </c>
     </row>
@@ -17058,7 +17172,7 @@
       <c r="G19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -17195,7 +17309,7 @@
       <c r="G25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -17219,7 +17333,7 @@
       <c r="G26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="11" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -19276,7 +19390,7 @@
       <c r="G115" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="H115" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -19459,7 +19573,7 @@
       <c r="G123" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H123" s="13" t="s">
+      <c r="H123" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -20884,7 +20998,7 @@
       <c r="G185" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H185" s="13" t="s">
+      <c r="H185" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -21069,7 +21183,7 @@
       <c r="G193" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H193" s="13" t="s">
+      <c r="H193" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -23027,7 +23141,7 @@
       <c r="G278" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H278" s="14" t="s">
+      <c r="H278" s="11" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -24305,7 +24419,7 @@
       <c r="G333" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H333" s="13" t="s">
+      <c r="H333" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -24835,7 +24949,7 @@
       <c r="G356" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H356" s="14" t="s">
+      <c r="H356" s="11" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -26196,7 +26310,7 @@
       <c r="G415" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H415" s="13" t="s">
+      <c r="H415" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -26266,7 +26380,7 @@
       <c r="G418" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H418" s="14" t="s">
+      <c r="H418" s="11" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -26290,7 +26404,7 @@
       <c r="G419" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H419" s="13" t="s">
+      <c r="H419" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -26337,7 +26451,7 @@
       <c r="G421" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H421" s="13" t="s">
+      <c r="H421" s="10" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -26410,7 +26524,7 @@
       <c r="G424" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H424" s="14" t="s">
+      <c r="H424" s="11" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -31383,7 +31497,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
         <v>1285</v>
       </c>
@@ -31406,7 +31520,7 @@
         <v>75230</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="5" t="s">
         <v>1287</v>
       </c>
@@ -31429,7 +31543,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
         <v>1289</v>
       </c>
@@ -31452,7 +31566,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="5" t="s">
         <v>1291</v>
       </c>
@@ -31475,7 +31589,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
         <v>1293</v>
       </c>
@@ -31498,7 +31612,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="5" t="s">
         <v>1295</v>
       </c>
@@ -31521,7 +31635,7 @@
         <v>255770</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
         <v>1297</v>
       </c>
@@ -31541,8 +31655,11 @@
       <c r="G647" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H647" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="5" t="s">
         <v>1299</v>
       </c>
@@ -31565,7 +31682,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
         <v>1301</v>
       </c>
@@ -31588,7 +31705,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="5" t="s">
         <v>1303</v>
       </c>
@@ -31611,7 +31728,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
         <v>1305</v>
       </c>
@@ -31634,7 +31751,7 @@
         <v>403000</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>1307</v>
       </c>
@@ -31657,7 +31774,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
         <v>1309</v>
       </c>
@@ -31680,7 +31797,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="5" t="s">
         <v>1311</v>
       </c>
@@ -31703,7 +31820,7 @@
         <v>328850</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
         <v>1313</v>
       </c>
@@ -31726,7 +31843,7 @@
         <v>344970</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="5" t="s">
         <v>1315</v>
       </c>
@@ -31877,8 +31994,8 @@
       <c r="D662" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E662" s="8" t="s">
-        <v>42</v>
+      <c r="E662" s="8">
+        <v>2000</v>
       </c>
       <c r="F662" s="8" t="s">
         <v>42</v>
@@ -32104,8 +32221,8 @@
       <c r="C672" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D672" s="8" t="s">
-        <v>42</v>
+      <c r="D672" s="8">
+        <v>1500</v>
       </c>
       <c r="E672" s="8" t="s">
         <v>42</v>
@@ -32853,7 +32970,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" s="3" t="s">
         <v>1413</v>
       </c>
@@ -32876,7 +32993,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" s="5" t="s">
         <v>1415</v>
       </c>
@@ -32899,7 +33016,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" s="3" t="s">
         <v>1417</v>
       </c>
@@ -32922,7 +33039,7 @@
         <v>237500</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" s="5" t="s">
         <v>1419</v>
       </c>
@@ -32945,7 +33062,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" s="3" t="s">
         <v>1421</v>
       </c>
@@ -32968,7 +33085,7 @@
         <v>137560</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" s="5" t="s">
         <v>1423</v>
       </c>
@@ -32978,20 +33095,23 @@
       <c r="C710" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D710" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E710" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F710" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G710" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D710" s="8">
+        <v>0</v>
+      </c>
+      <c r="E710" s="8">
+        <v>0</v>
+      </c>
+      <c r="F710" s="8">
+        <v>0</v>
+      </c>
+      <c r="G710" s="8">
+        <v>0</v>
+      </c>
+      <c r="H710" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" s="3" t="s">
         <v>1425</v>
       </c>
@@ -33014,7 +33134,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" s="5" t="s">
         <v>1427</v>
       </c>
@@ -33037,7 +33157,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" s="3" t="s">
         <v>1429</v>
       </c>
@@ -33060,7 +33180,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" s="5" t="s">
         <v>1431</v>
       </c>
@@ -33083,7 +33203,7 @@
         <v>278340</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="3" t="s">
         <v>1433</v>
       </c>
@@ -33106,7 +33226,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="5" t="s">
         <v>1435</v>
       </c>
@@ -33129,7 +33249,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" s="3" t="s">
         <v>1437</v>
       </c>
@@ -33152,7 +33272,7 @@
         <v>208490</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" s="5" t="s">
         <v>1439</v>
       </c>
@@ -33175,7 +33295,7 @@
         <v>425570</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" s="3" t="s">
         <v>1441</v>
       </c>
@@ -33198,7 +33318,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" s="5" t="s">
         <v>1443</v>
       </c>
@@ -33208,20 +33328,23 @@
       <c r="C720" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D720" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E720" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F720" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G720" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D720" s="8">
+        <v>0</v>
+      </c>
+      <c r="E720" s="8">
+        <v>0</v>
+      </c>
+      <c r="F720" s="8">
+        <v>0</v>
+      </c>
+      <c r="G720" s="8">
+        <v>0</v>
+      </c>
+      <c r="H720" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>1445</v>
       </c>
@@ -33244,7 +33367,7 @@
         <v>360010</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" s="5" t="s">
         <v>1447</v>
       </c>
@@ -33267,7 +33390,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>1449</v>
       </c>
@@ -33290,7 +33413,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" s="5" t="s">
         <v>1451</v>
       </c>
@@ -33313,7 +33436,7 @@
         <v>107470</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>1453</v>
       </c>
@@ -33323,20 +33446,23 @@
       <c r="C725" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D725" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E725" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F725" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G725" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D725" s="7">
+        <v>0</v>
+      </c>
+      <c r="E725" s="7">
+        <v>0</v>
+      </c>
+      <c r="F725" s="7">
+        <v>0</v>
+      </c>
+      <c r="G725" s="7">
+        <v>0</v>
+      </c>
+      <c r="H725" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" s="5" t="s">
         <v>1455</v>
       </c>
@@ -33346,8 +33472,8 @@
       <c r="C726" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D726" s="8" t="s">
-        <v>42</v>
+      <c r="D726" s="8">
+        <v>3000</v>
       </c>
       <c r="E726" s="8" t="s">
         <v>42</v>
@@ -33359,7 +33485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>1457</v>
       </c>
@@ -33382,7 +33508,7 @@
         <v>175170</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" s="5" t="s">
         <v>1459</v>
       </c>
@@ -33405,7 +33531,7 @@
         <v>293380</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>1461</v>
       </c>
@@ -33428,7 +33554,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" s="5" t="s">
         <v>1463</v>
       </c>
@@ -33451,7 +33577,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" s="3" t="s">
         <v>1465</v>
       </c>
@@ -33474,7 +33600,7 @@
         <v>347120</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" s="5" t="s">
         <v>1467</v>
       </c>
@@ -33497,7 +33623,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" s="3" t="s">
         <v>1469</v>
       </c>
@@ -33507,8 +33633,8 @@
       <c r="C733" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D733" s="7" t="s">
-        <v>42</v>
+      <c r="D733" s="7">
+        <v>1100</v>
       </c>
       <c r="E733" s="7" t="s">
         <v>42</v>
@@ -33520,7 +33646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" s="5" t="s">
         <v>1471</v>
       </c>
@@ -33543,7 +33669,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" s="3" t="s">
         <v>1473</v>
       </c>
@@ -33566,7 +33692,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" s="5" t="s">
         <v>1475</v>
       </c>
@@ -33645,8 +33771,8 @@
       <c r="C739" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D739" s="7" t="s">
-        <v>42</v>
+      <c r="D739" s="7">
+        <v>2500</v>
       </c>
       <c r="E739" s="7" t="s">
         <v>42</v>
@@ -33740,8 +33866,8 @@
       <c r="D743" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E743" s="7" t="s">
-        <v>42</v>
+      <c r="E743" s="7">
+        <v>1500</v>
       </c>
       <c r="F743" s="3">
         <v>1330</v>
@@ -34129,8 +34255,8 @@
       <c r="D760" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E760" s="8" t="s">
-        <v>42</v>
+      <c r="E760" s="8">
+        <v>2080</v>
       </c>
       <c r="F760" s="8" t="s">
         <v>42</v>
@@ -34219,8 +34345,8 @@
       <c r="D764" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E764" s="8" t="s">
-        <v>42</v>
+      <c r="E764" s="8">
+        <v>1490</v>
       </c>
       <c r="F764" s="8" t="s">
         <v>42</v>
@@ -34321,7 +34447,7 @@
         <v>335300</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" s="3" t="s">
         <v>1541</v>
       </c>
@@ -34344,7 +34470,7 @@
         <v>357870</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" s="5" t="s">
         <v>1543</v>
       </c>
@@ -34367,7 +34493,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A771" s="3" t="s">
         <v>1545</v>
       </c>
@@ -34377,20 +34503,23 @@
       <c r="C771" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D771" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E771" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F771" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G771" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D771" s="7">
+        <v>0</v>
+      </c>
+      <c r="E771" s="7">
+        <v>0</v>
+      </c>
+      <c r="F771" s="7">
+        <v>0</v>
+      </c>
+      <c r="G771" s="7">
+        <v>0</v>
+      </c>
+      <c r="H771" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" s="5" t="s">
         <v>1547</v>
       </c>
@@ -34413,7 +34542,7 @@
         <v>392250</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" s="3" t="s">
         <v>1549</v>
       </c>
@@ -34436,7 +34565,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" s="5" t="s">
         <v>1551</v>
       </c>
@@ -34459,7 +34588,7 @@
         <v>278340</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" s="3" t="s">
         <v>1553</v>
       </c>
@@ -34482,7 +34611,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" s="5" t="s">
         <v>1555</v>
       </c>
@@ -34492,8 +34621,8 @@
       <c r="C776" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D776" s="8" t="s">
-        <v>42</v>
+      <c r="D776" s="8">
+        <v>1750</v>
       </c>
       <c r="E776" s="8" t="s">
         <v>42</v>
@@ -34505,7 +34634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" s="3" t="s">
         <v>1557</v>
       </c>
@@ -34528,7 +34657,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" s="5" t="s">
         <v>1559</v>
       </c>
@@ -34551,7 +34680,7 @@
         <v>171950</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" s="3" t="s">
         <v>1561</v>
       </c>
@@ -34561,8 +34690,8 @@
       <c r="C779" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D779" s="7" t="s">
-        <v>42</v>
+      <c r="D779" s="7">
+        <v>1800</v>
       </c>
       <c r="E779" s="7" t="s">
         <v>42</v>
@@ -34574,7 +34703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="5" t="s">
         <v>1563</v>
       </c>
@@ -34597,7 +34726,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" s="3" t="s">
         <v>1565</v>
       </c>
@@ -34620,7 +34749,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" s="5" t="s">
         <v>1567</v>
       </c>
@@ -34643,7 +34772,7 @@
         <v>385810</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" s="3" t="s">
         <v>1569</v>
       </c>
@@ -34666,7 +34795,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A784" s="5" t="s">
         <v>1571</v>
       </c>
@@ -34745,8 +34874,8 @@
       <c r="C787" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D787" s="7" t="s">
-        <v>42</v>
+      <c r="D787" s="7">
+        <v>2000</v>
       </c>
       <c r="E787" s="7" t="s">
         <v>42</v>
@@ -35057,7 +35186,7 @@
         <v>155830</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" s="3" t="s">
         <v>1605</v>
       </c>
@@ -35080,7 +35209,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" s="5" t="s">
         <v>1607</v>
       </c>
@@ -35090,20 +35219,23 @@
       <c r="C802" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D802" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E802" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F802" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G802" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D802" s="8">
+        <v>0</v>
+      </c>
+      <c r="E802" s="8">
+        <v>0</v>
+      </c>
+      <c r="F802" s="8">
+        <v>0</v>
+      </c>
+      <c r="G802" s="8">
+        <v>0</v>
+      </c>
+      <c r="H802" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" s="3" t="s">
         <v>1609</v>
       </c>
@@ -35113,20 +35245,23 @@
       <c r="C803" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D803" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E803" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F803" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G803" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D803" s="7">
+        <v>0</v>
+      </c>
+      <c r="E803" s="7">
+        <v>0</v>
+      </c>
+      <c r="F803" s="7">
+        <v>0</v>
+      </c>
+      <c r="G803" s="7">
+        <v>0</v>
+      </c>
+      <c r="H803" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" s="5" t="s">
         <v>1611</v>
       </c>
@@ -35136,20 +35271,23 @@
       <c r="C804" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D804" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E804" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F804" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G804" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="805" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D804" s="8">
+        <v>0</v>
+      </c>
+      <c r="E804" s="8">
+        <v>0</v>
+      </c>
+      <c r="F804" s="8">
+        <v>0</v>
+      </c>
+      <c r="G804" s="8">
+        <v>0</v>
+      </c>
+      <c r="H804" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A805" s="3" t="s">
         <v>1613</v>
       </c>
@@ -35172,7 +35310,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" s="5" t="s">
         <v>1615</v>
       </c>
@@ -35185,8 +35323,8 @@
       <c r="D806" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E806" s="8" t="s">
-        <v>42</v>
+      <c r="E806" s="8">
+        <v>100</v>
       </c>
       <c r="F806" s="8" t="s">
         <v>42</v>
@@ -35195,7 +35333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" s="3" t="s">
         <v>1617</v>
       </c>
@@ -35205,20 +35343,20 @@
       <c r="C807" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D807" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E807" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F807" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G807" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D807" s="7">
+        <v>0</v>
+      </c>
+      <c r="E807" s="7">
+        <v>0</v>
+      </c>
+      <c r="F807" s="7">
+        <v>0</v>
+      </c>
+      <c r="G807" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" s="5" t="s">
         <v>1619</v>
       </c>
@@ -35241,7 +35379,7 @@
         <v>399780</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" s="3" t="s">
         <v>1621</v>
       </c>
@@ -35264,7 +35402,7 @@
         <v>408370</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" s="5" t="s">
         <v>1623</v>
       </c>
@@ -35287,7 +35425,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" s="3" t="s">
         <v>1625</v>
       </c>
@@ -35310,7 +35448,7 @@
         <v>260070</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" s="5" t="s">
         <v>1627</v>
       </c>
@@ -35333,7 +35471,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" s="3" t="s">
         <v>1629</v>
       </c>
@@ -35356,7 +35494,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" s="5" t="s">
         <v>1631</v>
       </c>
@@ -35379,7 +35517,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" s="3" t="s">
         <v>1633</v>
       </c>
@@ -35402,7 +35540,7 @@
         <v>314880</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" s="5" t="s">
         <v>1635</v>
       </c>
@@ -36056,8 +36194,8 @@
       <c r="C844" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D844" s="8" t="s">
-        <v>42</v>
+      <c r="D844" s="8">
+        <v>330</v>
       </c>
       <c r="E844" s="8" t="s">
         <v>42</v>
@@ -36529,7 +36667,7 @@
         <v>426640</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" s="3" t="s">
         <v>1733</v>
       </c>
@@ -36549,8 +36687,11 @@
       <c r="G865" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H865" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" s="5" t="s">
         <v>1735</v>
       </c>
@@ -36573,7 +36714,7 @@
         <v>236430</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" s="3" t="s">
         <v>1737</v>
       </c>
@@ -36596,7 +36737,7 @@
         <v>305210</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" s="5" t="s">
         <v>1739</v>
       </c>
@@ -36619,7 +36760,7 @@
         <v>236430</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" s="3" t="s">
         <v>1741</v>
       </c>
@@ -36642,7 +36783,7 @@
         <v>297680</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870" s="5" t="s">
         <v>1743</v>
       </c>
@@ -36665,7 +36806,7 @@
         <v>408370</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871" s="3" t="s">
         <v>1745</v>
       </c>
@@ -36688,7 +36829,7 @@
         <v>188070</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872" s="5" t="s">
         <v>1747</v>
       </c>
@@ -36711,7 +36852,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" s="3" t="s">
         <v>1749</v>
       </c>
@@ -36731,8 +36872,11 @@
       <c r="G873" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H873" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" s="5" t="s">
         <v>1751</v>
       </c>
@@ -36755,7 +36899,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" s="3" t="s">
         <v>1753</v>
       </c>
@@ -36778,7 +36922,7 @@
         <v>251470</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" s="5" t="s">
         <v>1755</v>
       </c>
@@ -36801,7 +36945,7 @@
         <v>245020</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" s="3" t="s">
         <v>1757</v>
       </c>
@@ -36824,7 +36968,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878" s="5" t="s">
         <v>1759</v>
       </c>
@@ -36847,7 +36991,7 @@
         <v>355720</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" s="3" t="s">
         <v>1761</v>
       </c>
@@ -36867,8 +37011,11 @@
       <c r="G879" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H879" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" s="5" t="s">
         <v>1763</v>
       </c>
@@ -36888,8 +37035,11 @@
       <c r="G880" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H880" s="11" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" s="3" t="s">
         <v>1765</v>
       </c>
@@ -36909,8 +37059,11 @@
       <c r="G881" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H881" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" s="5" t="s">
         <v>1767</v>
       </c>
@@ -36930,8 +37083,11 @@
       <c r="G882" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H882" s="11" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" s="3" t="s">
         <v>1769</v>
       </c>
@@ -36951,8 +37107,11 @@
       <c r="G883" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H883" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884" s="5" t="s">
         <v>1771</v>
       </c>
@@ -36975,7 +37134,7 @@
         <v>360010</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885" s="3" t="s">
         <v>1773</v>
       </c>
@@ -36998,7 +37157,7 @@
         <v>385810</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" s="5" t="s">
         <v>1775</v>
       </c>
@@ -37021,7 +37180,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" s="3" t="s">
         <v>1777</v>
       </c>
@@ -37044,7 +37203,7 @@
         <v>344970</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" s="5" t="s">
         <v>1779</v>
       </c>
@@ -37067,7 +37226,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889" s="3" t="s">
         <v>1781</v>
       </c>
@@ -37090,7 +37249,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" s="5" t="s">
         <v>1783</v>
       </c>
@@ -37113,7 +37272,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891" s="3" t="s">
         <v>1785</v>
       </c>
@@ -37136,7 +37295,7 @@
         <v>441690</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" s="5" t="s">
         <v>1787</v>
       </c>
@@ -37159,7 +37318,7 @@
         <v>435240</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" s="3" t="s">
         <v>1789</v>
       </c>
@@ -37169,8 +37328,8 @@
       <c r="C893" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D893" s="7" t="s">
-        <v>42</v>
+      <c r="D893" s="7">
+        <v>2400</v>
       </c>
       <c r="E893" s="7" t="s">
         <v>42</v>
@@ -37182,7 +37341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894" s="5" t="s">
         <v>1791</v>
       </c>
@@ -37205,7 +37364,7 @@
         <v>405150</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895" s="3" t="s">
         <v>1793</v>
       </c>
@@ -37228,7 +37387,7 @@
         <v>383660</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896" s="5" t="s">
         <v>1795</v>
       </c>
@@ -37514,8 +37673,8 @@
       <c r="C908" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D908" s="8" t="s">
-        <v>42</v>
+      <c r="D908" s="8">
+        <v>1700</v>
       </c>
       <c r="E908" s="8" t="s">
         <v>42</v>
@@ -37619,7 +37778,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913" s="3" t="s">
         <v>1829</v>
       </c>
@@ -37642,7 +37801,7 @@
         <v>69850</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914" s="5" t="s">
         <v>1831</v>
       </c>
@@ -37665,7 +37824,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915" s="3" t="s">
         <v>1833</v>
       </c>
@@ -37688,7 +37847,7 @@
         <v>361090</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916" s="5" t="s">
         <v>1835</v>
       </c>
@@ -37711,7 +37870,7 @@
         <v>360010</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917" s="3" t="s">
         <v>1837</v>
       </c>
@@ -37734,7 +37893,7 @@
         <v>364310</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918" s="5" t="s">
         <v>1839</v>
       </c>
@@ -37757,7 +37916,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919" s="3" t="s">
         <v>1841</v>
       </c>
@@ -37780,7 +37939,7 @@
         <v>385810</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920" s="5" t="s">
         <v>1843</v>
       </c>
@@ -37803,7 +37962,7 @@
         <v>393330</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921" s="3" t="s">
         <v>1845</v>
       </c>
@@ -37823,8 +37982,11 @@
       <c r="G921" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H921" s="10" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922" s="5" t="s">
         <v>1847</v>
       </c>
@@ -37847,7 +38009,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923" s="3" t="s">
         <v>1849</v>
       </c>
@@ -37870,7 +38032,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924" s="5" t="s">
         <v>1851</v>
       </c>
@@ -37893,7 +38055,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925" s="3" t="s">
         <v>1853</v>
       </c>
@@ -37916,7 +38078,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926" s="5" t="s">
         <v>1855</v>
       </c>
@@ -37939,7 +38101,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927" s="3" t="s">
         <v>1857</v>
       </c>
@@ -37962,7 +38124,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928" s="5" t="s">
         <v>1859</v>
       </c>
@@ -37985,7 +38147,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929" s="3" t="s">
         <v>1861</v>
       </c>
@@ -38008,7 +38170,7 @@
         <v>204190</v>
       </c>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930" s="5" t="s">
         <v>1863</v>
       </c>
@@ -38018,20 +38180,23 @@
       <c r="C930" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D930" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E930" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F930" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G930" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D930" s="8">
+        <v>0</v>
+      </c>
+      <c r="E930" s="8">
+        <v>0</v>
+      </c>
+      <c r="F930" s="8">
+        <v>0</v>
+      </c>
+      <c r="G930" s="8">
+        <v>0</v>
+      </c>
+      <c r="H930" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931" s="3" t="s">
         <v>1865</v>
       </c>
@@ -38054,7 +38219,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932" s="5" t="s">
         <v>1867</v>
       </c>
@@ -38077,7 +38242,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933" s="3" t="s">
         <v>1869</v>
       </c>
@@ -38100,7 +38265,7 @@
         <v>270820</v>
       </c>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934" s="5" t="s">
         <v>1871</v>
       </c>
@@ -38122,8 +38287,11 @@
       <c r="G934" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H934" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935" s="3" t="s">
         <v>1873</v>
       </c>
@@ -38146,7 +38314,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936" s="5" t="s">
         <v>1875</v>
       </c>
@@ -38169,7 +38337,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937" s="3" t="s">
         <v>1877</v>
       </c>
@@ -38192,7 +38360,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938" s="5" t="s">
         <v>1879</v>
       </c>
@@ -38215,7 +38383,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939" s="3" t="s">
         <v>1881</v>
       </c>
@@ -38238,7 +38406,7 @@
         <v>382580</v>
       </c>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940" s="5" t="s">
         <v>1883</v>
       </c>
@@ -38261,7 +38429,7 @@
         <v>217080</v>
       </c>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941" s="3" t="s">
         <v>1885</v>
       </c>
@@ -38284,7 +38452,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942" s="5" t="s">
         <v>1887</v>
       </c>
@@ -38307,7 +38475,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943" s="3" t="s">
         <v>1889</v>
       </c>
@@ -38330,7 +38498,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944" s="5" t="s">
         <v>1891</v>
       </c>
@@ -38353,7 +38521,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945" s="3" t="s">
         <v>1893</v>
       </c>
@@ -38376,7 +38544,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946" s="5" t="s">
         <v>1895</v>
       </c>
@@ -38399,7 +38567,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947" s="3" t="s">
         <v>1897</v>
       </c>
@@ -38422,7 +38590,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948" s="5" t="s">
         <v>1899</v>
       </c>
@@ -38445,7 +38613,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949" s="3" t="s">
         <v>1901</v>
       </c>
@@ -38455,20 +38623,23 @@
       <c r="C949" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D949" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E949" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F949" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G949" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D949" s="7">
+        <v>0</v>
+      </c>
+      <c r="E949" s="7">
+        <v>0</v>
+      </c>
+      <c r="F949" s="7">
+        <v>0</v>
+      </c>
+      <c r="G949" s="7">
+        <v>0</v>
+      </c>
+      <c r="H949" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950" s="5" t="s">
         <v>1903</v>
       </c>
@@ -38491,7 +38662,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951" s="3" t="s">
         <v>1905</v>
       </c>
@@ -38514,7 +38685,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952" s="5" t="s">
         <v>1907</v>
       </c>
@@ -38537,7 +38708,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953" s="3" t="s">
         <v>1909</v>
       </c>
@@ -38560,7 +38731,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954" s="5" t="s">
         <v>1911</v>
       </c>
@@ -38583,7 +38754,7 @@
         <v>381510</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955" s="3" t="s">
         <v>1913</v>
       </c>
@@ -38606,7 +38777,7 @@
         <v>293380</v>
       </c>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956" s="5" t="s">
         <v>1915</v>
       </c>
@@ -38629,7 +38800,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957" s="3" t="s">
         <v>1917</v>
       </c>
@@ -38652,7 +38823,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958" s="5" t="s">
         <v>1919</v>
       </c>
@@ -38675,7 +38846,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959" s="3" t="s">
         <v>1921</v>
       </c>
@@ -38698,7 +38869,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960" s="5" t="s">
         <v>1923</v>
       </c>
@@ -38708,17 +38879,20 @@
       <c r="C960" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D960" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E960" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F960" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G960" s="8" t="s">
-        <v>42</v>
+      <c r="D960" s="8">
+        <v>0</v>
+      </c>
+      <c r="E960" s="8">
+        <v>0</v>
+      </c>
+      <c r="F960" s="8">
+        <v>0</v>
+      </c>
+      <c r="G960" s="8">
+        <v>0</v>
+      </c>
+      <c r="H960" t="s">
+        <v>5338</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.2">
@@ -38961,8 +39135,8 @@
       <c r="C971" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D971" s="7" t="s">
-        <v>42</v>
+      <c r="D971" s="7">
+        <v>2000</v>
       </c>
       <c r="E971" s="7" t="s">
         <v>42</v>
@@ -39051,17 +39225,17 @@
         <v>1954</v>
       </c>
       <c r="C975" s="3"/>
-      <c r="D975" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E975" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F975" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G975" s="7" t="s">
-        <v>42</v>
+      <c r="D975" s="7">
+        <v>0</v>
+      </c>
+      <c r="E975" s="7">
+        <v>0</v>
+      </c>
+      <c r="F975" s="7">
+        <v>0</v>
+      </c>
+      <c r="G975" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.2">
@@ -39455,7 +39629,7 @@
         <v>307360</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A993" s="3" t="s">
         <v>1989</v>
       </c>
@@ -39478,7 +39652,7 @@
         <v>288010</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A994" s="5" t="s">
         <v>1991</v>
       </c>
@@ -39501,7 +39675,7 @@
         <v>414820</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A995" s="3" t="s">
         <v>1993</v>
       </c>
@@ -39524,7 +39698,7 @@
         <v>231050</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A996" s="5" t="s">
         <v>1995</v>
       </c>
@@ -39547,7 +39721,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A997" s="3" t="s">
         <v>1997</v>
       </c>
@@ -39570,7 +39744,7 @@
         <v>112840</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A998" s="5" t="s">
         <v>1999</v>
       </c>
@@ -39593,7 +39767,7 @@
         <v>188100</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A999" s="3" t="s">
         <v>2001</v>
       </c>
@@ -39603,20 +39777,23 @@
       <c r="C999" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D999" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E999" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F999" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G999" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D999" s="7">
+        <v>0</v>
+      </c>
+      <c r="E999" s="7">
+        <v>0</v>
+      </c>
+      <c r="F999" s="7">
+        <v>0</v>
+      </c>
+      <c r="G999" s="7">
+        <v>0</v>
+      </c>
+      <c r="H999" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1000" s="5" t="s">
         <v>2003</v>
       </c>
@@ -39626,20 +39803,23 @@
       <c r="C1000" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1000" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1000" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1000" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1000" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1000" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1000" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1000" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1000" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1001" s="3" t="s">
         <v>2005</v>
       </c>
@@ -39649,20 +39829,23 @@
       <c r="C1001" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1001" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1001" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1001" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1001" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1001" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1001" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1001" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1001" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1002" s="5" t="s">
         <v>2007</v>
       </c>
@@ -39685,7 +39868,7 @@
         <v>424490</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1003" s="3" t="s">
         <v>2009</v>
       </c>
@@ -39705,8 +39888,11 @@
       <c r="G1003" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1003" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1004" s="5" t="s">
         <v>2011</v>
       </c>
@@ -39729,7 +39915,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1005" s="3" t="s">
         <v>2013</v>
       </c>
@@ -39752,7 +39938,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1006" s="5" t="s">
         <v>2015</v>
       </c>
@@ -39775,7 +39961,7 @@
         <v>150450</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1007" s="3" t="s">
         <v>2017</v>
       </c>
@@ -39798,7 +39984,7 @@
         <v>139710</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1008" s="5" t="s">
         <v>2019</v>
       </c>
@@ -39821,7 +40007,7 @@
         <v>358940</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1009" s="3" t="s">
         <v>2021</v>
       </c>
@@ -39844,7 +40030,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1010" s="5" t="s">
         <v>2023</v>
       </c>
@@ -39867,7 +40053,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1011" s="3" t="s">
         <v>2025</v>
       </c>
@@ -39890,7 +40076,7 @@
         <v>334220</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1012" s="5" t="s">
         <v>2027</v>
       </c>
@@ -39913,7 +40099,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1013" s="3" t="s">
         <v>2029</v>
       </c>
@@ -39936,7 +40122,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1014" s="5" t="s">
         <v>2031</v>
       </c>
@@ -39946,8 +40132,8 @@
       <c r="C1014" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1014" s="8" t="s">
-        <v>42</v>
+      <c r="D1014" s="8">
+        <v>1850</v>
       </c>
       <c r="E1014" s="8" t="s">
         <v>42</v>
@@ -39959,7 +40145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1015" s="3" t="s">
         <v>2033</v>
       </c>
@@ -39982,7 +40168,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1016" s="5" t="s">
         <v>2035</v>
       </c>
@@ -40005,7 +40191,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1017" s="3" t="s">
         <v>2037</v>
       </c>
@@ -40028,7 +40214,7 @@
         <v>408370</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1018" s="5" t="s">
         <v>2039</v>
       </c>
@@ -40051,7 +40237,7 @@
         <v>413750</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1019" s="3" t="s">
         <v>2041</v>
       </c>
@@ -40073,8 +40259,11 @@
       <c r="G1019" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1019" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1020" s="5" t="s">
         <v>2043</v>
       </c>
@@ -40097,7 +40286,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1021" s="3" t="s">
         <v>2045</v>
       </c>
@@ -40120,7 +40309,7 @@
         <v>288010</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1022" s="5" t="s">
         <v>2047</v>
       </c>
@@ -40130,20 +40319,23 @@
       <c r="C1022" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1022" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1022" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1022" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1022" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1022" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1022" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1022" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1022" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1023" s="3" t="s">
         <v>2049</v>
       </c>
@@ -40166,7 +40358,7 @@
         <v>64480</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1024" s="5" t="s">
         <v>2051</v>
       </c>
@@ -40189,7 +40381,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1025" s="3" t="s">
         <v>2053</v>
       </c>
@@ -40199,20 +40391,23 @@
       <c r="C1025" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1025" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1025" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1025" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1025" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1025" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1025" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1025" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1025" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1026" s="5" t="s">
         <v>2055</v>
       </c>
@@ -40222,20 +40417,23 @@
       <c r="C1026" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1026" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1026" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1026" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1026" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1026" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1026" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1026" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1026" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1027" s="3" t="s">
         <v>2057</v>
       </c>
@@ -40245,20 +40443,23 @@
       <c r="C1027" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1027" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1027" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1027" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1027" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1027" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1027" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1027" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1027" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1028" s="5" t="s">
         <v>2059</v>
       </c>
@@ -40281,7 +40482,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1029" s="3" t="s">
         <v>2061</v>
       </c>
@@ -40304,7 +40505,7 @@
         <v>249320</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1030" s="5" t="s">
         <v>2063</v>
       </c>
@@ -40327,7 +40528,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1031" s="3" t="s">
         <v>2065</v>
       </c>
@@ -40350,7 +40551,7 @@
         <v>956500</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1032" s="5" t="s">
         <v>2067</v>
       </c>
@@ -40373,7 +40574,7 @@
         <v>342820</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
         <v>2069</v>
       </c>
@@ -40396,7 +40597,7 @@
         <v>278340</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1034" s="5" t="s">
         <v>2071</v>
       </c>
@@ -40419,7 +40620,7 @@
         <v>198810</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
         <v>2073</v>
       </c>
@@ -40442,7 +40643,7 @@
         <v>361090</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1036" s="5" t="s">
         <v>2075</v>
       </c>
@@ -40465,7 +40666,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
         <v>2077</v>
       </c>
@@ -40488,7 +40689,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1038" s="5" t="s">
         <v>2079</v>
       </c>
@@ -40511,7 +40712,7 @@
         <v>139710</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
         <v>2081</v>
       </c>
@@ -40521,20 +40722,23 @@
       <c r="C1039" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1039" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1039" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1039" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1039" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1039" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1039" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1039" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1039" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1040" s="5" t="s">
         <v>2083</v>
       </c>
@@ -40557,7 +40761,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1041" s="3" t="s">
         <v>2085</v>
       </c>
@@ -40577,8 +40781,11 @@
       <c r="G1041" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1041" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1042" s="5" t="s">
         <v>2087</v>
       </c>
@@ -40588,20 +40795,23 @@
       <c r="C1042" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1042" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1042" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1042" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1042" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1042" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1042" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1042" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1042" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1043" s="3" t="s">
         <v>2089</v>
       </c>
@@ -40624,7 +40834,7 @@
         <v>382580</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1044" s="5" t="s">
         <v>2091</v>
       </c>
@@ -40647,7 +40857,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1045" s="3" t="s">
         <v>2093</v>
       </c>
@@ -40670,7 +40880,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1046" s="5" t="s">
         <v>2095</v>
       </c>
@@ -40693,7 +40903,7 @@
         <v>68780</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1047" s="3" t="s">
         <v>2097</v>
       </c>
@@ -40716,7 +40926,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1048" s="5" t="s">
         <v>2099</v>
       </c>
@@ -40739,7 +40949,7 @@
         <v>282640</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1049" s="3" t="s">
         <v>2101</v>
       </c>
@@ -40762,7 +40972,7 @@
         <v>435240</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1050" s="5" t="s">
         <v>2103</v>
       </c>
@@ -40785,7 +40995,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1051" s="3" t="s">
         <v>2105</v>
       </c>
@@ -40808,7 +41018,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1052" s="5" t="s">
         <v>2107</v>
       </c>
@@ -40831,7 +41041,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1053" s="3" t="s">
         <v>2109</v>
       </c>
@@ -40854,7 +41064,7 @@
         <v>269740</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1054" s="5" t="s">
         <v>2111</v>
       </c>
@@ -40877,7 +41087,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1055" s="3" t="s">
         <v>2113</v>
       </c>
@@ -40900,7 +41110,7 @@
         <v>278340</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1056" s="5" t="s">
         <v>2115</v>
       </c>
@@ -40923,7 +41133,7 @@
         <v>454590</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1057" s="3" t="s">
         <v>2117</v>
       </c>
@@ -40946,7 +41156,7 @@
         <v>286940</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1058" s="5" t="s">
         <v>2119</v>
       </c>
@@ -40969,7 +41179,7 @@
         <v>188070</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1059" s="3" t="s">
         <v>2121</v>
       </c>
@@ -40992,7 +41202,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1060" s="5" t="s">
         <v>2123</v>
       </c>
@@ -41015,7 +41225,7 @@
         <v>296610</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1061" s="3" t="s">
         <v>2125</v>
       </c>
@@ -41038,7 +41248,7 @@
         <v>269740</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1062" s="5" t="s">
         <v>2127</v>
       </c>
@@ -41061,7 +41271,7 @@
         <v>355720</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1063" s="3" t="s">
         <v>2129</v>
       </c>
@@ -41084,7 +41294,7 @@
         <v>399780</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1064" s="5" t="s">
         <v>2131</v>
       </c>
@@ -41107,7 +41317,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1065" s="3" t="s">
         <v>2133</v>
       </c>
@@ -41130,7 +41340,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1066" s="5" t="s">
         <v>2135</v>
       </c>
@@ -41153,7 +41363,7 @@
         <v>361090</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1067" s="3" t="s">
         <v>2137</v>
       </c>
@@ -41176,7 +41386,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1068" s="5" t="s">
         <v>2139</v>
       </c>
@@ -41199,7 +41409,7 @@
         <v>231050</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1069" s="3" t="s">
         <v>2141</v>
       </c>
@@ -41209,20 +41419,23 @@
       <c r="C1069" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1069" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1069" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1069" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1069" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1069" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1069" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1069" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1069" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1070" s="5" t="s">
         <v>2143</v>
       </c>
@@ -41245,7 +41458,7 @@
         <v>406230</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1071" s="3" t="s">
         <v>2145</v>
       </c>
@@ -41268,7 +41481,7 @@
         <v>213840</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1072" s="5" t="s">
         <v>2147</v>
       </c>
@@ -41291,7 +41504,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1073" s="3" t="s">
         <v>2149</v>
       </c>
@@ -41314,7 +41527,7 @@
         <v>304130</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1074" s="5" t="s">
         <v>2151</v>
       </c>
@@ -41334,8 +41547,11 @@
       <c r="G1074" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1075" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1074" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1075" s="3" t="s">
         <v>2153</v>
       </c>
@@ -41358,7 +41574,7 @@
         <v>96720</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1076" s="5" t="s">
         <v>2155</v>
       </c>
@@ -41381,7 +41597,7 @@
         <v>315950</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1077" s="3" t="s">
         <v>2157</v>
       </c>
@@ -41404,7 +41620,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1078" s="5" t="s">
         <v>2159</v>
       </c>
@@ -41427,7 +41643,7 @@
         <v>342820</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1079" s="3" t="s">
         <v>2161</v>
       </c>
@@ -41450,7 +41666,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1080" s="5" t="s">
         <v>2163</v>
       </c>
@@ -41473,7 +41689,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1081" s="3" t="s">
         <v>2165</v>
       </c>
@@ -41496,7 +41712,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1082" s="5" t="s">
         <v>2167</v>
       </c>
@@ -41519,7 +41735,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1083" s="3" t="s">
         <v>2169</v>
       </c>
@@ -41542,7 +41758,7 @@
         <v>334220</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1084" s="5" t="s">
         <v>2171</v>
       </c>
@@ -41565,7 +41781,7 @@
         <v>277260</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1085" s="3" t="s">
         <v>2173</v>
       </c>
@@ -41588,7 +41804,7 @@
         <v>236430</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1086" s="5" t="s">
         <v>2175</v>
       </c>
@@ -41611,7 +41827,7 @@
         <v>197740</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1087" s="3" t="s">
         <v>2177</v>
       </c>
@@ -41634,7 +41850,7 @@
         <v>197740</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1088" s="5" t="s">
         <v>2179</v>
       </c>
@@ -41657,7 +41873,7 @@
         <v>297680</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1089" s="3" t="s">
         <v>2181</v>
       </c>
@@ -41680,7 +41896,7 @@
         <v>284790</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1090" s="5" t="s">
         <v>2183</v>
       </c>
@@ -41703,7 +41919,7 @@
         <v>170870</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1091" s="3" t="s">
         <v>2185</v>
       </c>
@@ -41726,7 +41942,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1092" s="5" t="s">
         <v>2187</v>
       </c>
@@ -41749,7 +41965,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1093" s="3" t="s">
         <v>2189</v>
       </c>
@@ -41772,7 +41988,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1094" s="5" t="s">
         <v>2191</v>
       </c>
@@ -41795,7 +42011,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1095" s="3" t="s">
         <v>2193</v>
       </c>
@@ -41818,7 +42034,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1096" s="5" t="s">
         <v>2195</v>
       </c>
@@ -41841,7 +42057,7 @@
         <v>372910</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1097" s="3" t="s">
         <v>2197</v>
       </c>
@@ -41851,20 +42067,23 @@
       <c r="C1097" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1097" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1097" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1097" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1097" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1097" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1097" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1097" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1097" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1098" s="5" t="s">
         <v>2199</v>
       </c>
@@ -41887,7 +42106,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1099" s="3" t="s">
         <v>2201</v>
       </c>
@@ -41910,7 +42129,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1100" s="5" t="s">
         <v>2203</v>
       </c>
@@ -41933,7 +42152,7 @@
         <v>124660</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1101" s="3" t="s">
         <v>2205</v>
       </c>
@@ -41956,7 +42175,7 @@
         <v>393330</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1102" s="5" t="s">
         <v>2207</v>
       </c>
@@ -41979,7 +42198,7 @@
         <v>245020</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1103" s="3" t="s">
         <v>2209</v>
       </c>
@@ -42002,7 +42221,7 @@
         <v>178400</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1104" s="5" t="s">
         <v>2211</v>
       </c>
@@ -42518,8 +42737,8 @@
       <c r="C1126" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1126" s="8" t="s">
-        <v>42</v>
+      <c r="D1126" s="8">
+        <v>1500</v>
       </c>
       <c r="E1126" s="8" t="s">
         <v>42</v>
@@ -42761,7 +42980,7 @@
         <v>321330</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1137" s="3" t="s">
         <v>2277</v>
       </c>
@@ -42771,8 +42990,8 @@
       <c r="C1137" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1137" s="7" t="s">
-        <v>42</v>
+      <c r="D1137" s="7">
+        <v>600</v>
       </c>
       <c r="E1137" s="7" t="s">
         <v>42</v>
@@ -42784,7 +43003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1138" s="5" t="s">
         <v>2279</v>
       </c>
@@ -42807,7 +43026,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1139" s="3" t="s">
         <v>2281</v>
       </c>
@@ -42817,8 +43036,8 @@
       <c r="C1139" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1139" s="7" t="s">
-        <v>42</v>
+      <c r="D1139" s="7">
+        <v>150</v>
       </c>
       <c r="E1139" s="7" t="s">
         <v>42</v>
@@ -42829,8 +43048,11 @@
       <c r="G1139" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1139" s="10" t="s">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1140" s="5" t="s">
         <v>2283</v>
       </c>
@@ -42853,7 +43075,7 @@
         <v>466410</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1141" s="3" t="s">
         <v>2285</v>
       </c>
@@ -42876,7 +43098,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1142" s="5" t="s">
         <v>2287</v>
       </c>
@@ -42899,7 +43121,7 @@
         <v>285860</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1143" s="3" t="s">
         <v>2289</v>
       </c>
@@ -42922,7 +43144,7 @@
         <v>406230</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1144" s="5" t="s">
         <v>2291</v>
       </c>
@@ -42945,7 +43167,7 @@
         <v>288010</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1145" s="3" t="s">
         <v>2293</v>
       </c>
@@ -42968,7 +43190,7 @@
         <v>284790</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1146" s="5" t="s">
         <v>2295</v>
       </c>
@@ -42991,7 +43213,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1147" s="3" t="s">
         <v>2297</v>
       </c>
@@ -43014,7 +43236,7 @@
         <v>327770</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1148" s="5" t="s">
         <v>2299</v>
       </c>
@@ -43024,20 +43246,23 @@
       <c r="C1148" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1148" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1148" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1148" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1148" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1148" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1148" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1148" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1148" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1149" s="3" t="s">
         <v>2301</v>
       </c>
@@ -43060,7 +43285,7 @@
         <v>397630</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1150" s="5" t="s">
         <v>2303</v>
       </c>
@@ -43083,7 +43308,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1151" s="3" t="s">
         <v>2305</v>
       </c>
@@ -43106,7 +43331,7 @@
         <v>395480</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1152" s="5" t="s">
         <v>2307</v>
       </c>
@@ -43129,7 +43354,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1153" s="3" t="s">
         <v>2309</v>
       </c>
@@ -43152,7 +43377,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1154" s="5" t="s">
         <v>2311</v>
       </c>
@@ -43175,7 +43400,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1155" s="3" t="s">
         <v>2313</v>
       </c>
@@ -43198,7 +43423,7 @@
         <v>288010</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1156" s="5" t="s">
         <v>2315</v>
       </c>
@@ -43221,7 +43446,7 @@
         <v>386880</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1157" s="3" t="s">
         <v>2317</v>
       </c>
@@ -43244,7 +43469,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1158" s="5" t="s">
         <v>2319</v>
       </c>
@@ -43267,7 +43492,7 @@
         <v>303060</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1159" s="3" t="s">
         <v>2321</v>
       </c>
@@ -43290,7 +43515,7 @@
         <v>251470</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1160" s="5" t="s">
         <v>2323</v>
       </c>
@@ -43313,7 +43538,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1161" s="3" t="s">
         <v>2325</v>
       </c>
@@ -43333,8 +43558,11 @@
       <c r="G1161" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1161" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1162" s="5" t="s">
         <v>2327</v>
       </c>
@@ -43357,7 +43585,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1163" s="3" t="s">
         <v>2329</v>
       </c>
@@ -43380,7 +43608,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1164" s="5" t="s">
         <v>2331</v>
       </c>
@@ -43403,7 +43631,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1165" s="3" t="s">
         <v>2333</v>
       </c>
@@ -43426,7 +43654,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1166" s="5" t="s">
         <v>2335</v>
       </c>
@@ -43449,7 +43677,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1167" s="3" t="s">
         <v>2337</v>
       </c>
@@ -43472,7 +43700,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1168" s="5" t="s">
         <v>2339</v>
       </c>
@@ -43482,20 +43710,23 @@
       <c r="C1168" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1168" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1168" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1168" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1168" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1168" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1168" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1168" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1168" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1169" s="3" t="s">
         <v>2341</v>
       </c>
@@ -43518,7 +43749,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1170" s="5" t="s">
         <v>2343</v>
       </c>
@@ -43541,7 +43772,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1171" s="3" t="s">
         <v>2345</v>
       </c>
@@ -43564,7 +43795,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="1172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1172" s="5" t="s">
         <v>2347</v>
       </c>
@@ -43587,7 +43818,7 @@
         <v>324550</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1173" s="3" t="s">
         <v>2349</v>
       </c>
@@ -43610,7 +43841,7 @@
         <v>264370</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1174" s="5" t="s">
         <v>2351</v>
       </c>
@@ -43633,7 +43864,7 @@
         <v>270820</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1175" s="3" t="s">
         <v>2353</v>
       </c>
@@ -43656,7 +43887,7 @@
         <v>298760</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1176" s="5" t="s">
         <v>2355</v>
       </c>
@@ -43679,7 +43910,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1177" s="3" t="s">
         <v>2357</v>
       </c>
@@ -43702,7 +43933,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1178" s="5" t="s">
         <v>2359</v>
       </c>
@@ -43725,7 +43956,7 @@
         <v>166570</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1179" s="3" t="s">
         <v>2361</v>
       </c>
@@ -43748,7 +43979,7 @@
         <v>211710</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1180" s="5" t="s">
         <v>2363</v>
       </c>
@@ -43768,8 +43999,11 @@
       <c r="G1180" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1180" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1181" s="3" t="s">
         <v>2365</v>
       </c>
@@ -43792,7 +44026,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1182" s="5" t="s">
         <v>2367</v>
       </c>
@@ -43815,7 +44049,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1183" s="3" t="s">
         <v>2369</v>
       </c>
@@ -43838,7 +44072,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1184" s="5" t="s">
         <v>2371</v>
       </c>
@@ -43861,7 +44095,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1185" s="3" t="s">
         <v>2373</v>
       </c>
@@ -43884,7 +44118,7 @@
         <v>64480</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1186" s="5" t="s">
         <v>2375</v>
       </c>
@@ -43907,7 +44141,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1187" s="3" t="s">
         <v>2377</v>
       </c>
@@ -43930,7 +44164,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1188" s="5" t="s">
         <v>2379</v>
       </c>
@@ -43953,7 +44187,7 @@
         <v>69850</v>
       </c>
     </row>
-    <row r="1189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1189" s="3" t="s">
         <v>2381</v>
       </c>
@@ -43976,7 +44210,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1190" s="5" t="s">
         <v>2383</v>
       </c>
@@ -43999,7 +44233,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="1191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1191" s="3" t="s">
         <v>2385</v>
       </c>
@@ -44022,7 +44256,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="1192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1192" s="5" t="s">
         <v>2387</v>
       </c>
@@ -44045,7 +44279,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="1193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1193" s="3" t="s">
         <v>2389</v>
       </c>
@@ -44068,7 +44302,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="1194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1194" s="5" t="s">
         <v>2391</v>
       </c>
@@ -44091,7 +44325,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="1195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1195" s="3" t="s">
         <v>2393</v>
       </c>
@@ -44114,7 +44348,7 @@
         <v>265440</v>
       </c>
     </row>
-    <row r="1196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1196" s="5" t="s">
         <v>2395</v>
       </c>
@@ -44124,20 +44358,23 @@
       <c r="C1196" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1196" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1196" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1196" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1196" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1196" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1196" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1196" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1196" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1197" s="3" t="s">
         <v>2397</v>
       </c>
@@ -44147,20 +44384,23 @@
       <c r="C1197" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1197" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1197" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1197" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1197" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1197" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1197" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1197" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1197" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1198" s="5" t="s">
         <v>2399</v>
       </c>
@@ -44170,8 +44410,8 @@
       <c r="C1198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1198" s="8" t="s">
-        <v>42</v>
+      <c r="D1198" s="8">
+        <v>1200</v>
       </c>
       <c r="E1198" s="8" t="s">
         <v>42</v>
@@ -44183,7 +44423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1199" s="3" t="s">
         <v>2401</v>
       </c>
@@ -44206,7 +44446,7 @@
         <v>242880</v>
       </c>
     </row>
-    <row r="1200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1200" s="5" t="s">
         <v>2403</v>
       </c>
@@ -44229,7 +44469,7 @@
         <v>226760</v>
       </c>
     </row>
-    <row r="1201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1201" s="3" t="s">
         <v>2405</v>
       </c>
@@ -44252,7 +44492,7 @@
         <v>296610</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1202" s="5" t="s">
         <v>2407</v>
       </c>
@@ -44262,8 +44502,8 @@
       <c r="C1202" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1202" s="8" t="s">
-        <v>42</v>
+      <c r="D1202" s="8">
+        <v>1000</v>
       </c>
       <c r="E1202" s="8" t="s">
         <v>42</v>
@@ -44275,7 +44515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1203" s="3" t="s">
         <v>2409</v>
       </c>
@@ -44298,7 +44538,7 @@
         <v>956500</v>
       </c>
     </row>
-    <row r="1204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1204" s="5" t="s">
         <v>2411</v>
       </c>
@@ -44321,7 +44561,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1205" s="3" t="s">
         <v>2413</v>
       </c>
@@ -44344,7 +44584,7 @@
         <v>252550</v>
       </c>
     </row>
-    <row r="1206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1206" s="5" t="s">
         <v>2415</v>
       </c>
@@ -44367,7 +44607,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1207" s="3" t="s">
         <v>2417</v>
       </c>
@@ -44390,7 +44630,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1208" s="5" t="s">
         <v>2419</v>
       </c>
@@ -44410,8 +44650,11 @@
       <c r="G1208" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1208" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1209" s="3" t="s">
         <v>2421</v>
       </c>
@@ -44434,7 +44677,7 @@
         <v>243950</v>
       </c>
     </row>
-    <row r="1210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1210" s="5" t="s">
         <v>2423</v>
       </c>
@@ -44457,7 +44700,7 @@
         <v>231050</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1211" s="3" t="s">
         <v>2425</v>
       </c>
@@ -44480,7 +44723,7 @@
         <v>255770</v>
       </c>
     </row>
-    <row r="1212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1212" s="5" t="s">
         <v>2427</v>
       </c>
@@ -44503,7 +44746,7 @@
         <v>227830</v>
       </c>
     </row>
-    <row r="1213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1213" s="3" t="s">
         <v>2429</v>
       </c>
@@ -44526,7 +44769,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1214" s="5" t="s">
         <v>2431</v>
       </c>
@@ -44549,7 +44792,7 @@
         <v>379360</v>
       </c>
     </row>
-    <row r="1215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1215" s="3" t="s">
         <v>2433</v>
       </c>
@@ -44572,7 +44815,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1216" s="5" t="s">
         <v>2435</v>
       </c>
@@ -44963,7 +45206,7 @@
         <v>315950</v>
       </c>
     </row>
-    <row r="1233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1233" s="3" t="s">
         <v>2469</v>
       </c>
@@ -44986,7 +45229,7 @@
         <v>353570</v>
       </c>
     </row>
-    <row r="1234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1234" s="5" t="s">
         <v>2471</v>
       </c>
@@ -45009,7 +45252,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1235" s="3" t="s">
         <v>2473</v>
       </c>
@@ -45032,7 +45275,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="1236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1236" s="5" t="s">
         <v>2475</v>
       </c>
@@ -45055,7 +45298,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1237" s="3" t="s">
         <v>2477</v>
       </c>
@@ -45078,7 +45321,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1238" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1238" s="5" t="s">
         <v>2479</v>
       </c>
@@ -45101,7 +45344,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="1239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1239" s="3" t="s">
         <v>2481</v>
       </c>
@@ -45124,7 +45367,7 @@
         <v>270820</v>
       </c>
     </row>
-    <row r="1240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1240" s="5" t="s">
         <v>2483</v>
       </c>
@@ -45147,7 +45390,7 @@
         <v>383660</v>
       </c>
     </row>
-    <row r="1241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1241" s="3" t="s">
         <v>2485</v>
       </c>
@@ -45170,7 +45413,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1242" s="5" t="s">
         <v>2487</v>
       </c>
@@ -45193,7 +45436,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="1243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1243" s="3" t="s">
         <v>2489</v>
       </c>
@@ -45216,7 +45459,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1244" s="5" t="s">
         <v>2491</v>
       </c>
@@ -45226,20 +45469,23 @@
       <c r="C1244" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1244" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1244" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1244" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1244" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1244" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1244" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1244" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1244" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1245" s="3" t="s">
         <v>2493</v>
       </c>
@@ -45262,7 +45508,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1246" s="5" t="s">
         <v>2495</v>
       </c>
@@ -45285,7 +45531,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1247" s="3" t="s">
         <v>2497</v>
       </c>
@@ -45308,7 +45554,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="1248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1248" s="5" t="s">
         <v>2499</v>
       </c>
@@ -45331,7 +45577,7 @@
         <v>232130</v>
       </c>
     </row>
-    <row r="1249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1249" s="3" t="s">
         <v>2501</v>
       </c>
@@ -45354,7 +45600,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1250" s="5" t="s">
         <v>2503</v>
       </c>
@@ -45377,7 +45623,7 @@
         <v>456730</v>
       </c>
     </row>
-    <row r="1251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1251" s="3" t="s">
         <v>2505</v>
       </c>
@@ -45400,7 +45646,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1252" s="5" t="s">
         <v>2507</v>
       </c>
@@ -45423,7 +45669,7 @@
         <v>272970</v>
       </c>
     </row>
-    <row r="1253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1253" s="3" t="s">
         <v>2509</v>
       </c>
@@ -45446,7 +45692,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1254" s="5" t="s">
         <v>2511</v>
       </c>
@@ -45469,7 +45715,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1255" s="3" t="s">
         <v>2513</v>
       </c>
@@ -45492,7 +45738,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1256" s="5" t="s">
         <v>2515</v>
       </c>
@@ -45515,7 +45761,7 @@
         <v>239650</v>
       </c>
     </row>
-    <row r="1257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1257" s="3" t="s">
         <v>2517</v>
       </c>
@@ -45538,7 +45784,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1258" s="5" t="s">
         <v>2519</v>
       </c>
@@ -45561,7 +45807,7 @@
         <v>380430</v>
       </c>
     </row>
-    <row r="1259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1259" s="3" t="s">
         <v>2521</v>
       </c>
@@ -45584,7 +45830,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1260" s="5" t="s">
         <v>2523</v>
       </c>
@@ -45604,8 +45850,11 @@
       <c r="G1260" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1260" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1261" s="3" t="s">
         <v>2525</v>
       </c>
@@ -45628,7 +45877,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1262" s="5" t="s">
         <v>2527</v>
       </c>
@@ -45651,7 +45900,7 @@
         <v>297680</v>
       </c>
     </row>
-    <row r="1263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1263" s="3" t="s">
         <v>2529</v>
       </c>
@@ -45674,7 +45923,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="1264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1264" s="5" t="s">
         <v>2531</v>
       </c>
@@ -47085,8 +47334,8 @@
       <c r="C1325" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1325" s="7" t="s">
-        <v>42</v>
+      <c r="D1325" s="7">
+        <v>1000</v>
       </c>
       <c r="E1325" s="7" t="s">
         <v>42</v>
@@ -47901,7 +48150,7 @@
         <v>107470</v>
       </c>
     </row>
-    <row r="1361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1361" s="3" t="s">
         <v>2725</v>
       </c>
@@ -47924,7 +48173,7 @@
         <v>266520</v>
       </c>
     </row>
-    <row r="1362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1362" s="5" t="s">
         <v>2727</v>
       </c>
@@ -47947,7 +48196,7 @@
         <v>313800</v>
       </c>
     </row>
-    <row r="1363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1363" s="3" t="s">
         <v>2729</v>
       </c>
@@ -47970,7 +48219,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1364" s="5" t="s">
         <v>2731</v>
       </c>
@@ -47993,7 +48242,7 @@
         <v>308430</v>
       </c>
     </row>
-    <row r="1365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1365" s="3" t="s">
         <v>2733</v>
       </c>
@@ -48016,7 +48265,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="1366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1366" s="5" t="s">
         <v>2735</v>
       </c>
@@ -48039,7 +48288,7 @@
         <v>430940</v>
       </c>
     </row>
-    <row r="1367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1367" s="3" t="s">
         <v>2737</v>
       </c>
@@ -48062,7 +48311,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1368" s="5" t="s">
         <v>2739</v>
       </c>
@@ -48085,7 +48334,7 @@
         <v>248250</v>
       </c>
     </row>
-    <row r="1369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1369" s="3" t="s">
         <v>2741</v>
       </c>
@@ -48108,7 +48357,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1370" s="5" t="s">
         <v>2743</v>
       </c>
@@ -48131,7 +48380,7 @@
         <v>346040</v>
       </c>
     </row>
-    <row r="1371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1371" s="3" t="s">
         <v>2745</v>
       </c>
@@ -48154,7 +48403,7 @@
         <v>324550</v>
       </c>
     </row>
-    <row r="1372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1372" s="5" t="s">
         <v>2747</v>
       </c>
@@ -48177,7 +48426,7 @@
         <v>324550</v>
       </c>
     </row>
-    <row r="1373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1373" s="3" t="s">
         <v>2749</v>
       </c>
@@ -48200,7 +48449,7 @@
         <v>344970</v>
       </c>
     </row>
-    <row r="1374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1374" s="5" t="s">
         <v>2751</v>
       </c>
@@ -48223,7 +48472,7 @@
         <v>378280</v>
       </c>
     </row>
-    <row r="1375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1375" s="3" t="s">
         <v>2753</v>
       </c>
@@ -48246,7 +48495,7 @@
         <v>348190</v>
       </c>
     </row>
-    <row r="1376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1376" s="5" t="s">
         <v>2755</v>
       </c>
@@ -48266,6 +48515,9 @@
       <c r="G1376" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H1376" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="1377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1377" s="3" t="s">
@@ -48438,8 +48690,8 @@
       <c r="C1384" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1384" s="8" t="s">
-        <v>42</v>
+      <c r="D1384" s="8">
+        <v>400</v>
       </c>
       <c r="E1384" s="8" t="s">
         <v>42</v>
@@ -48635,7 +48887,7 @@
         <v>341750</v>
       </c>
     </row>
-    <row r="1393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1393" s="3" t="s">
         <v>2789</v>
       </c>
@@ -48645,20 +48897,23 @@
       <c r="C1393" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1393" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1393" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1393" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1393" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1393" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1393" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1393" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1393" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1394" s="5" t="s">
         <v>2791</v>
       </c>
@@ -48681,7 +48936,7 @@
         <v>352490</v>
       </c>
     </row>
-    <row r="1395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1395" s="3" t="s">
         <v>2793</v>
       </c>
@@ -48701,8 +48956,11 @@
       <c r="G1395" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1395" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1396" s="5" t="s">
         <v>2795</v>
       </c>
@@ -48725,7 +48983,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1397" s="3" t="s">
         <v>2797</v>
       </c>
@@ -48748,7 +49006,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1398" s="5" t="s">
         <v>2799</v>
       </c>
@@ -48771,7 +49029,7 @@
         <v>212780</v>
       </c>
     </row>
-    <row r="1399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1399" s="3" t="s">
         <v>2801</v>
       </c>
@@ -48794,7 +49052,7 @@
         <v>204190</v>
       </c>
     </row>
-    <row r="1400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1400" s="5" t="s">
         <v>2803</v>
       </c>
@@ -48817,7 +49075,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="1401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1401" s="3" t="s">
         <v>2805</v>
       </c>
@@ -48840,7 +49098,7 @@
         <v>270820</v>
       </c>
     </row>
-    <row r="1402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1402" s="5" t="s">
         <v>2807</v>
       </c>
@@ -48863,7 +49121,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1403" s="3" t="s">
         <v>2809</v>
       </c>
@@ -48883,8 +49141,11 @@
       <c r="G1403" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1403" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1404" s="5" t="s">
         <v>2811</v>
       </c>
@@ -48907,7 +49168,7 @@
         <v>314880</v>
       </c>
     </row>
-    <row r="1405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1405" s="3" t="s">
         <v>2813</v>
       </c>
@@ -48930,7 +49191,7 @@
         <v>294460</v>
       </c>
     </row>
-    <row r="1406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1406" s="5" t="s">
         <v>2815</v>
       </c>
@@ -48953,7 +49214,7 @@
         <v>401930</v>
       </c>
     </row>
-    <row r="1407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1407" s="3" t="s">
         <v>2817</v>
       </c>
@@ -48976,7 +49237,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1408" s="5" t="s">
         <v>2819</v>
       </c>
@@ -48999,7 +49260,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1409" s="3" t="s">
         <v>2821</v>
       </c>
@@ -49022,7 +49283,7 @@
         <v>171950</v>
       </c>
     </row>
-    <row r="1410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1410" s="5" t="s">
         <v>2823</v>
       </c>
@@ -49045,7 +49306,7 @@
         <v>233200</v>
       </c>
     </row>
-    <row r="1411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1411" s="3" t="s">
         <v>2825</v>
       </c>
@@ -49068,7 +49329,7 @@
         <v>285860</v>
       </c>
     </row>
-    <row r="1412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1412" s="5" t="s">
         <v>2827</v>
       </c>
@@ -49091,7 +49352,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="1413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1413" s="3" t="s">
         <v>2829</v>
       </c>
@@ -49114,7 +49375,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1414" s="5" t="s">
         <v>2831</v>
       </c>
@@ -49137,7 +49398,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1415" s="3" t="s">
         <v>2833</v>
       </c>
@@ -49160,7 +49421,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1416" s="5" t="s">
         <v>2835</v>
       </c>
@@ -49183,7 +49444,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1417" s="3" t="s">
         <v>2837</v>
       </c>
@@ -49206,7 +49467,7 @@
         <v>134330</v>
       </c>
     </row>
-    <row r="1418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1418" s="5" t="s">
         <v>2839</v>
       </c>
@@ -49229,7 +49490,7 @@
         <v>271890</v>
       </c>
     </row>
-    <row r="1419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1419" s="3" t="s">
         <v>2841</v>
       </c>
@@ -49252,7 +49513,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="1420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1420" s="5" t="s">
         <v>2843</v>
       </c>
@@ -49262,20 +49523,23 @@
       <c r="C1420" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1420" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1420" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1420" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1420" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1420" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1420" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1420" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1420" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1421" s="3" t="s">
         <v>2845</v>
       </c>
@@ -49298,7 +49562,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1422" s="5" t="s">
         <v>2847</v>
       </c>
@@ -49321,7 +49585,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1423" s="3" t="s">
         <v>2849</v>
       </c>
@@ -49331,8 +49595,8 @@
       <c r="C1423" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1423" s="7" t="s">
-        <v>42</v>
+      <c r="D1423" s="7">
+        <v>1000</v>
       </c>
       <c r="E1423" s="7" t="s">
         <v>42</v>
@@ -49344,7 +49608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1424" s="5" t="s">
         <v>2851</v>
       </c>
@@ -49367,7 +49631,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1425" s="3" t="s">
         <v>2853</v>
       </c>
@@ -49390,7 +49654,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="1426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1426" s="5" t="s">
         <v>2855</v>
       </c>
@@ -49413,7 +49677,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1427" s="3" t="s">
         <v>2857</v>
       </c>
@@ -49436,7 +49700,7 @@
         <v>296610</v>
       </c>
     </row>
-    <row r="1428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1428" s="5" t="s">
         <v>2859</v>
       </c>
@@ -49459,7 +49723,7 @@
         <v>352490</v>
       </c>
     </row>
-    <row r="1429" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1429" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1429" s="3" t="s">
         <v>2861</v>
       </c>
@@ -49482,7 +49746,7 @@
         <v>204190</v>
       </c>
     </row>
-    <row r="1430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1430" s="5" t="s">
         <v>2863</v>
       </c>
@@ -49505,7 +49769,7 @@
         <v>289090</v>
       </c>
     </row>
-    <row r="1431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1431" s="3" t="s">
         <v>2865</v>
       </c>
@@ -49528,7 +49792,7 @@
         <v>278340</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1432" s="5" t="s">
         <v>2867</v>
       </c>
@@ -49551,7 +49815,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="1433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1433" s="3" t="s">
         <v>2869</v>
       </c>
@@ -49574,7 +49838,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1434" s="5" t="s">
         <v>2871</v>
       </c>
@@ -49597,7 +49861,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="1435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1435" s="3" t="s">
         <v>2873</v>
       </c>
@@ -49620,7 +49884,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1436" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1436" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1436" s="5" t="s">
         <v>2875</v>
       </c>
@@ -49641,7 +49905,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1437" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1437" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1437" s="3" t="s">
         <v>2877</v>
       </c>
@@ -49651,20 +49915,23 @@
       <c r="C1437" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1437" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1437" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1437" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1437" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1437" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1437" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1437" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1437" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1438" s="5" t="s">
         <v>2879</v>
       </c>
@@ -49674,20 +49941,23 @@
       <c r="C1438" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1438" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1438" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1438" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1438" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1438" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1438" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1438" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1438" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1439" s="3" t="s">
         <v>2881</v>
       </c>
@@ -49710,7 +49980,7 @@
         <v>134330</v>
       </c>
     </row>
-    <row r="1440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1440" s="5" t="s">
         <v>2883</v>
       </c>
@@ -49733,7 +50003,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1441" s="3" t="s">
         <v>2885</v>
       </c>
@@ -49743,20 +50013,23 @@
       <c r="C1441" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1441" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1441" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1441" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1441" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1441" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1441" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1441" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1441" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1442" s="5" t="s">
         <v>2887</v>
       </c>
@@ -49779,7 +50052,7 @@
         <v>254700</v>
       </c>
     </row>
-    <row r="1443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1443" s="3" t="s">
         <v>2889</v>
       </c>
@@ -49802,7 +50075,7 @@
         <v>375060</v>
       </c>
     </row>
-    <row r="1444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1444" s="5" t="s">
         <v>2891</v>
       </c>
@@ -49825,7 +50098,7 @@
         <v>224610</v>
       </c>
     </row>
-    <row r="1445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1445" s="3" t="s">
         <v>2893</v>
       </c>
@@ -49848,7 +50121,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="1446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1446" s="5" t="s">
         <v>2895</v>
       </c>
@@ -49871,7 +50144,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1447" s="3" t="s">
         <v>2897</v>
       </c>
@@ -49894,7 +50167,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1448" s="5" t="s">
         <v>2899</v>
       </c>
@@ -49917,7 +50190,7 @@
         <v>304130</v>
       </c>
     </row>
-    <row r="1449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1449" s="3" t="s">
         <v>2901</v>
       </c>
@@ -49940,7 +50213,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1450" s="5" t="s">
         <v>2903</v>
       </c>
@@ -49963,7 +50236,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1451" s="3" t="s">
         <v>2905</v>
       </c>
@@ -49986,7 +50259,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1452" s="5" t="s">
         <v>2907</v>
       </c>
@@ -50009,7 +50282,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1453" s="3" t="s">
         <v>2909</v>
       </c>
@@ -50032,7 +50305,7 @@
         <v>96720</v>
       </c>
     </row>
-    <row r="1454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1454" s="5" t="s">
         <v>2911</v>
       </c>
@@ -50055,7 +50328,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="1455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1455" s="3" t="s">
         <v>2913</v>
       </c>
@@ -50078,7 +50351,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="1456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1456" s="5" t="s">
         <v>2915</v>
       </c>
@@ -50101,7 +50374,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1457" s="3" t="s">
         <v>2917</v>
       </c>
@@ -50111,20 +50384,23 @@
       <c r="C1457" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1457" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1457" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1457" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1457" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1457" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1457" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1457" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1457" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1458" s="5" t="s">
         <v>2919</v>
       </c>
@@ -50147,7 +50423,7 @@
         <v>238580</v>
       </c>
     </row>
-    <row r="1459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1459" s="3" t="s">
         <v>2921</v>
       </c>
@@ -50170,7 +50446,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1460" s="5" t="s">
         <v>2923</v>
       </c>
@@ -50193,7 +50469,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="1461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1461" s="3" t="s">
         <v>2925</v>
       </c>
@@ -50216,7 +50492,7 @@
         <v>303060</v>
       </c>
     </row>
-    <row r="1462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1462" s="5" t="s">
         <v>2927</v>
       </c>
@@ -50239,7 +50515,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1463" s="3" t="s">
         <v>2929</v>
       </c>
@@ -50262,7 +50538,7 @@
         <v>409450</v>
       </c>
     </row>
-    <row r="1464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1464" s="5" t="s">
         <v>2931</v>
       </c>
@@ -50285,7 +50561,7 @@
         <v>340670</v>
       </c>
     </row>
-    <row r="1465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1465" s="3" t="s">
         <v>2933</v>
       </c>
@@ -50308,7 +50584,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1466" s="5" t="s">
         <v>2935</v>
       </c>
@@ -50331,7 +50607,7 @@
         <v>145080</v>
       </c>
     </row>
-    <row r="1467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1467" s="3" t="s">
         <v>2937</v>
       </c>
@@ -50354,7 +50630,7 @@
         <v>205260</v>
       </c>
     </row>
-    <row r="1468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1468" s="5" t="s">
         <v>2939</v>
       </c>
@@ -50377,7 +50653,7 @@
         <v>356790</v>
       </c>
     </row>
-    <row r="1469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1469" s="3" t="s">
         <v>2941</v>
       </c>
@@ -50400,7 +50676,7 @@
         <v>355720</v>
       </c>
     </row>
-    <row r="1470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1470" s="5" t="s">
         <v>2943</v>
       </c>
@@ -50423,7 +50699,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1471" s="3" t="s">
         <v>2945</v>
       </c>
@@ -50446,7 +50722,7 @@
         <v>382580</v>
       </c>
     </row>
-    <row r="1472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1472" s="5" t="s">
         <v>2947</v>
       </c>
@@ -50837,7 +51113,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="1489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1489" s="3" t="s">
         <v>2981</v>
       </c>
@@ -50857,8 +51133,11 @@
       <c r="G1489" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1489" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1490" s="5" t="s">
         <v>2983</v>
       </c>
@@ -50881,7 +51160,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1491" s="3" t="s">
         <v>2985</v>
       </c>
@@ -50904,7 +51183,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1492" s="5" t="s">
         <v>2987</v>
       </c>
@@ -50927,7 +51206,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1493" s="3" t="s">
         <v>2989</v>
       </c>
@@ -50950,7 +51229,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1494" s="5" t="s">
         <v>2991</v>
       </c>
@@ -50960,20 +51239,23 @@
       <c r="C1494" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1494" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1494" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1494" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1494" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1494" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1494" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1494" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1494" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1495" s="3" t="s">
         <v>2993</v>
       </c>
@@ -50996,7 +51278,7 @@
         <v>188070</v>
       </c>
     </row>
-    <row r="1496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1496" s="5" t="s">
         <v>2995</v>
       </c>
@@ -51019,7 +51301,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1497" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1497" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1497" s="3" t="s">
         <v>2997</v>
       </c>
@@ -51042,7 +51324,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1498" s="5" t="s">
         <v>2999</v>
       </c>
@@ -51063,7 +51345,7 @@
         <v>134330</v>
       </c>
     </row>
-    <row r="1499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1499" s="3" t="s">
         <v>3001</v>
       </c>
@@ -51086,7 +51368,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1500" s="5" t="s">
         <v>3003</v>
       </c>
@@ -51109,7 +51391,7 @@
         <v>331000</v>
       </c>
     </row>
-    <row r="1501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1501" s="3" t="s">
         <v>3005</v>
       </c>
@@ -51132,7 +51414,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1502" s="5" t="s">
         <v>3007</v>
       </c>
@@ -51155,7 +51437,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1503" s="3" t="s">
         <v>3009</v>
       </c>
@@ -51178,7 +51460,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1504" s="5" t="s">
         <v>3011</v>
       </c>
@@ -51188,20 +51470,23 @@
       <c r="C1504" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1504" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1504" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1504" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1504" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1504" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1504" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1504" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1504" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1505" s="3" t="s">
         <v>3013</v>
       </c>
@@ -51224,7 +51509,7 @@
         <v>313800</v>
       </c>
     </row>
-    <row r="1506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1506" s="5" t="s">
         <v>3015</v>
       </c>
@@ -51247,7 +51532,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="1507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1507" s="3" t="s">
         <v>3017</v>
       </c>
@@ -51270,7 +51555,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1508" s="5" t="s">
         <v>3019</v>
       </c>
@@ -51293,7 +51578,7 @@
         <v>286940</v>
       </c>
     </row>
-    <row r="1509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1509" s="3" t="s">
         <v>3021</v>
       </c>
@@ -51316,7 +51601,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1510" s="5" t="s">
         <v>3023</v>
       </c>
@@ -51339,7 +51624,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1511" s="3" t="s">
         <v>3025</v>
       </c>
@@ -51362,7 +51647,7 @@
         <v>344970</v>
       </c>
     </row>
-    <row r="1512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1512" s="5" t="s">
         <v>3027</v>
       </c>
@@ -51385,7 +51670,7 @@
         <v>352490</v>
       </c>
     </row>
-    <row r="1513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1513" s="3" t="s">
         <v>3029</v>
       </c>
@@ -51408,7 +51693,7 @@
         <v>69850</v>
       </c>
     </row>
-    <row r="1514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1514" s="5" t="s">
         <v>3031</v>
       </c>
@@ -51431,7 +51716,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1515" s="3" t="s">
         <v>3033</v>
       </c>
@@ -51454,7 +51739,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1516" s="5" t="s">
         <v>3035</v>
       </c>
@@ -51477,7 +51762,7 @@
         <v>291240</v>
       </c>
     </row>
-    <row r="1517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1517" s="3" t="s">
         <v>3037</v>
       </c>
@@ -51487,20 +51772,23 @@
       <c r="C1517" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1517" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1517" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1517" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1517" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1517" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1517" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1517" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1517" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1518" s="5" t="s">
         <v>3039</v>
       </c>
@@ -51523,7 +51811,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1519" s="3" t="s">
         <v>3041</v>
       </c>
@@ -51546,7 +51834,7 @@
         <v>389030</v>
       </c>
     </row>
-    <row r="1520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1520" s="5" t="s">
         <v>3043</v>
       </c>
@@ -51937,7 +52225,7 @@
         <v>380430</v>
       </c>
     </row>
-    <row r="1537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1537" s="3" t="s">
         <v>3077</v>
       </c>
@@ -51960,7 +52248,7 @@
         <v>411600</v>
       </c>
     </row>
-    <row r="1538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1538" s="5" t="s">
         <v>3079</v>
       </c>
@@ -51983,7 +52271,7 @@
         <v>331000</v>
       </c>
     </row>
-    <row r="1539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1539" s="3" t="s">
         <v>3081</v>
       </c>
@@ -52006,7 +52294,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="1540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1540" s="5" t="s">
         <v>3083</v>
       </c>
@@ -52029,7 +52317,7 @@
         <v>220310</v>
       </c>
     </row>
-    <row r="1541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1541" s="3" t="s">
         <v>3085</v>
       </c>
@@ -52039,20 +52327,23 @@
       <c r="C1541" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1541" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1541" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1541" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1541" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1541" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1541" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1541" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1541" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1542" s="5" t="s">
         <v>3087</v>
       </c>
@@ -52075,7 +52366,7 @@
         <v>296610</v>
       </c>
     </row>
-    <row r="1543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1543" s="3" t="s">
         <v>3089</v>
       </c>
@@ -52098,7 +52389,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1544" s="5" t="s">
         <v>3091</v>
       </c>
@@ -52121,7 +52412,7 @@
         <v>263290</v>
       </c>
     </row>
-    <row r="1545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1545" s="3" t="s">
         <v>3093</v>
       </c>
@@ -52144,7 +52435,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1546" s="5" t="s">
         <v>3095</v>
       </c>
@@ -52167,7 +52458,7 @@
         <v>248250</v>
       </c>
     </row>
-    <row r="1547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1547" s="3" t="s">
         <v>3097</v>
       </c>
@@ -52190,7 +52481,7 @@
         <v>67700</v>
       </c>
     </row>
-    <row r="1548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1548" s="5" t="s">
         <v>3099</v>
       </c>
@@ -52213,7 +52504,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1549" s="3" t="s">
         <v>3101</v>
       </c>
@@ -52236,7 +52527,7 @@
         <v>401930</v>
       </c>
     </row>
-    <row r="1550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1550" s="5" t="s">
         <v>3103</v>
       </c>
@@ -52259,7 +52550,7 @@
         <v>238580</v>
       </c>
     </row>
-    <row r="1551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1551" s="3" t="s">
         <v>3105</v>
       </c>
@@ -52282,7 +52573,7 @@
         <v>139710</v>
       </c>
     </row>
-    <row r="1552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1552" s="5" t="s">
         <v>3107</v>
       </c>
@@ -52305,7 +52596,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="1553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1553" s="3" t="s">
         <v>3109</v>
       </c>
@@ -52328,7 +52619,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1554" s="5" t="s">
         <v>3111</v>
       </c>
@@ -52338,20 +52629,23 @@
       <c r="C1554" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1554" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1554" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1554" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1554" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1554" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1554" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1554" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1554" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1554" t="s">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1555" s="3" t="s">
         <v>3113</v>
       </c>
@@ -52374,7 +52668,7 @@
         <v>324550</v>
       </c>
     </row>
-    <row r="1556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1556" s="5" t="s">
         <v>3115</v>
       </c>
@@ -52397,7 +52691,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1557" s="3" t="s">
         <v>3117</v>
       </c>
@@ -52420,7 +52714,7 @@
         <v>134330</v>
       </c>
     </row>
-    <row r="1558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1558" s="5" t="s">
         <v>3119</v>
       </c>
@@ -52443,7 +52737,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1559" s="3" t="s">
         <v>3121</v>
       </c>
@@ -52466,7 +52760,7 @@
         <v>337450</v>
       </c>
     </row>
-    <row r="1560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1560" s="5" t="s">
         <v>3123</v>
       </c>
@@ -52476,20 +52770,23 @@
       <c r="C1560" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1560" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1560" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1560" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1560" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1560" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1560" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1560" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1560" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1560" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1561" s="3" t="s">
         <v>3125</v>
       </c>
@@ -52512,7 +52809,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="1562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1562" s="5" t="s">
         <v>3127</v>
       </c>
@@ -52535,7 +52832,7 @@
         <v>347120</v>
       </c>
     </row>
-    <row r="1563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1563" s="3" t="s">
         <v>3129</v>
       </c>
@@ -52558,7 +52855,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="1564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1564" s="5" t="s">
         <v>3131</v>
       </c>
@@ -52581,7 +52878,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1565" s="3" t="s">
         <v>3133</v>
       </c>
@@ -52604,7 +52901,7 @@
         <v>329920</v>
       </c>
     </row>
-    <row r="1566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1566" s="5" t="s">
         <v>3135</v>
       </c>
@@ -52627,7 +52924,7 @@
         <v>304130</v>
       </c>
     </row>
-    <row r="1567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1567" s="3" t="s">
         <v>3137</v>
       </c>
@@ -52637,20 +52934,23 @@
       <c r="C1567" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1567" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1567" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1567" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1567" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1567" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1567" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1567" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1567" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1567" t="s">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1568" s="5" t="s">
         <v>3139</v>
       </c>
@@ -52673,7 +52973,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="1569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1569" s="3" t="s">
         <v>3141</v>
       </c>
@@ -52696,7 +52996,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="1570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1570" s="5" t="s">
         <v>3143</v>
       </c>
@@ -52719,7 +53019,7 @@
         <v>248250</v>
       </c>
     </row>
-    <row r="1571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1571" s="3" t="s">
         <v>3145</v>
       </c>
@@ -52742,7 +53042,7 @@
         <v>324550</v>
       </c>
     </row>
-    <row r="1572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1572" s="5" t="s">
         <v>3147</v>
       </c>
@@ -52765,7 +53065,7 @@
         <v>308430</v>
       </c>
     </row>
-    <row r="1573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1573" s="3" t="s">
         <v>3149</v>
       </c>
@@ -52788,7 +53088,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1574" s="5" t="s">
         <v>3151</v>
       </c>
@@ -52811,7 +53111,7 @@
         <v>355720</v>
       </c>
     </row>
-    <row r="1575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1575" s="3" t="s">
         <v>3153</v>
       </c>
@@ -52834,7 +53134,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1576" s="5" t="s">
         <v>3155</v>
       </c>
@@ -52857,7 +53157,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="1577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1577" s="3" t="s">
         <v>3157</v>
       </c>
@@ -52880,7 +53180,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1578" s="5" t="s">
         <v>3159</v>
       </c>
@@ -52903,7 +53203,7 @@
         <v>296610</v>
       </c>
     </row>
-    <row r="1579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1579" s="3" t="s">
         <v>3161</v>
       </c>
@@ -52926,7 +53226,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1580" s="5" t="s">
         <v>3163</v>
       </c>
@@ -52949,7 +53249,7 @@
         <v>204190</v>
       </c>
     </row>
-    <row r="1581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1581" s="3" t="s">
         <v>3165</v>
       </c>
@@ -52972,7 +53272,7 @@
         <v>207410</v>
       </c>
     </row>
-    <row r="1582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1582" s="5" t="s">
         <v>3167</v>
       </c>
@@ -52982,20 +53282,23 @@
       <c r="C1582" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1582" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1582" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1582" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1582" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1582" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1582" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1582" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1582" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1582" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1583" s="3" t="s">
         <v>3169</v>
       </c>
@@ -53018,7 +53321,7 @@
         <v>305210</v>
       </c>
     </row>
-    <row r="1584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1584" s="5" t="s">
         <v>3171</v>
       </c>
@@ -53327,8 +53630,8 @@
       <c r="C1597" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1597" s="7" t="s">
-        <v>42</v>
+      <c r="D1597" s="7">
+        <v>1500</v>
       </c>
       <c r="E1597" s="7" t="s">
         <v>42</v>
@@ -53409,7 +53712,7 @@
         <v>264370</v>
       </c>
     </row>
-    <row r="1601" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1601" s="3" t="s">
         <v>3205</v>
       </c>
@@ -53432,7 +53735,7 @@
         <v>347120</v>
       </c>
     </row>
-    <row r="1602" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1602" s="5" t="s">
         <v>3207</v>
       </c>
@@ -53455,7 +53758,7 @@
         <v>382580</v>
       </c>
     </row>
-    <row r="1603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1603" s="3" t="s">
         <v>3209</v>
       </c>
@@ -53478,7 +53781,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1604" s="5" t="s">
         <v>3211</v>
       </c>
@@ -53501,7 +53804,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1605" s="3" t="s">
         <v>3213</v>
       </c>
@@ -53524,7 +53827,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="1606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1606" s="5" t="s">
         <v>3215</v>
       </c>
@@ -53546,8 +53849,11 @@
       <c r="G1606" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1607" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1606" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1607" s="3" t="s">
         <v>3217</v>
       </c>
@@ -53557,20 +53863,23 @@
       <c r="C1607" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1607" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1607" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1607" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1607" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1607" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1607" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1607" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1607" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1607" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1608" s="5" t="s">
         <v>3219</v>
       </c>
@@ -53593,7 +53902,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1609" s="3" t="s">
         <v>3221</v>
       </c>
@@ -53616,7 +53925,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1610" s="5" t="s">
         <v>3223</v>
       </c>
@@ -53639,7 +53948,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="1611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1611" s="3" t="s">
         <v>3225</v>
       </c>
@@ -53662,7 +53971,7 @@
         <v>312730</v>
       </c>
     </row>
-    <row r="1612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1612" s="5" t="s">
         <v>3227</v>
       </c>
@@ -53685,7 +53994,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1613" s="3" t="s">
         <v>3229</v>
       </c>
@@ -53708,7 +54017,7 @@
         <v>255770</v>
       </c>
     </row>
-    <row r="1614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1614" s="5" t="s">
         <v>3231</v>
       </c>
@@ -53731,7 +54040,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="1615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1615" s="3" t="s">
         <v>3233</v>
       </c>
@@ -53741,20 +54050,23 @@
       <c r="C1615" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1615" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1615" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1615" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1615" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1615" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1615" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1615" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1615" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1615" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1616" s="5" t="s">
         <v>3235</v>
       </c>
@@ -53764,17 +54076,20 @@
       <c r="C1616" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1616" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1616" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1616" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1616" s="8" t="s">
-        <v>42</v>
+      <c r="D1616" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1616" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1616" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1616" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1616" t="s">
+        <v>5368</v>
       </c>
     </row>
     <row r="1617" spans="1:7" x14ac:dyDescent="0.2">
@@ -77381,111 +77696,111 @@
     </row>
     <row r="2647" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2648" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2648" s="10" t="s">
+      <c r="A2648" s="14" t="s">
         <v>5297</v>
       </c>
-      <c r="B2648" s="10"/>
-      <c r="C2648" s="10"/>
-      <c r="D2648" s="10"/>
-      <c r="E2648" s="10"/>
-      <c r="F2648" s="10"/>
-      <c r="G2648" s="10"/>
+      <c r="B2648" s="14"/>
+      <c r="C2648" s="14"/>
+      <c r="D2648" s="14"/>
+      <c r="E2648" s="14"/>
+      <c r="F2648" s="14"/>
+      <c r="G2648" s="14"/>
     </row>
     <row r="2649" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2649" s="1" t="s">
         <v>5298</v>
       </c>
-      <c r="B2649" s="10" t="s">
+      <c r="B2649" s="14" t="s">
         <v>5299</v>
       </c>
-      <c r="C2649" s="10"/>
-      <c r="D2649" s="10"/>
-      <c r="E2649" s="10"/>
-      <c r="F2649" s="10"/>
-      <c r="G2649" s="10"/>
+      <c r="C2649" s="14"/>
+      <c r="D2649" s="14"/>
+      <c r="E2649" s="14"/>
+      <c r="F2649" s="14"/>
+      <c r="G2649" s="14"/>
     </row>
     <row r="2650" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2650" s="10" t="s">
+      <c r="B2650" s="14" t="s">
         <v>5300</v>
       </c>
-      <c r="C2650" s="10"/>
-      <c r="D2650" s="10"/>
-      <c r="E2650" s="10"/>
-      <c r="F2650" s="10"/>
-      <c r="G2650" s="10"/>
+      <c r="C2650" s="14"/>
+      <c r="D2650" s="14"/>
+      <c r="E2650" s="14"/>
+      <c r="F2650" s="14"/>
+      <c r="G2650" s="14"/>
     </row>
     <row r="2651" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2651" s="10" t="s">
+      <c r="B2651" s="14" t="s">
         <v>5301</v>
       </c>
-      <c r="C2651" s="10"/>
-      <c r="D2651" s="10"/>
-      <c r="E2651" s="10"/>
-      <c r="F2651" s="10"/>
-      <c r="G2651" s="10"/>
+      <c r="C2651" s="14"/>
+      <c r="D2651" s="14"/>
+      <c r="E2651" s="14"/>
+      <c r="F2651" s="14"/>
+      <c r="G2651" s="14"/>
     </row>
     <row r="2652" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2652" s="10" t="s">
+      <c r="B2652" s="14" t="s">
         <v>5302</v>
       </c>
-      <c r="C2652" s="10"/>
-      <c r="D2652" s="10"/>
-      <c r="E2652" s="10"/>
-      <c r="F2652" s="10"/>
-      <c r="G2652" s="10"/>
+      <c r="C2652" s="14"/>
+      <c r="D2652" s="14"/>
+      <c r="E2652" s="14"/>
+      <c r="F2652" s="14"/>
+      <c r="G2652" s="14"/>
     </row>
     <row r="2653" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2653" s="10" t="s">
+      <c r="B2653" s="14" t="s">
         <v>5303</v>
       </c>
-      <c r="C2653" s="10"/>
-      <c r="D2653" s="10"/>
-      <c r="E2653" s="10"/>
-      <c r="F2653" s="10"/>
-      <c r="G2653" s="10"/>
+      <c r="C2653" s="14"/>
+      <c r="D2653" s="14"/>
+      <c r="E2653" s="14"/>
+      <c r="F2653" s="14"/>
+      <c r="G2653" s="14"/>
     </row>
     <row r="2654" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2654" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2654" s="10" t="s">
+      <c r="B2654" s="14" t="s">
         <v>5304</v>
       </c>
-      <c r="C2654" s="10"/>
-      <c r="D2654" s="10"/>
-      <c r="E2654" s="10"/>
-      <c r="F2654" s="10"/>
-      <c r="G2654" s="10"/>
+      <c r="C2654" s="14"/>
+      <c r="D2654" s="14"/>
+      <c r="E2654" s="14"/>
+      <c r="F2654" s="14"/>
+      <c r="G2654" s="14"/>
     </row>
     <row r="2655" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2655" s="10" t="s">
+      <c r="B2655" s="14" t="s">
         <v>5305</v>
       </c>
-      <c r="C2655" s="10"/>
-      <c r="D2655" s="10"/>
-      <c r="E2655" s="10"/>
-      <c r="F2655" s="10"/>
-      <c r="G2655" s="10"/>
+      <c r="C2655" s="14"/>
+      <c r="D2655" s="14"/>
+      <c r="E2655" s="14"/>
+      <c r="F2655" s="14"/>
+      <c r="G2655" s="14"/>
     </row>
     <row r="2656" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2656" s="10" t="s">
+      <c r="B2656" s="14" t="s">
         <v>5306</v>
       </c>
-      <c r="C2656" s="10"/>
-      <c r="D2656" s="10"/>
-      <c r="E2656" s="10"/>
-      <c r="F2656" s="10"/>
-      <c r="G2656" s="10"/>
+      <c r="C2656" s="14"/>
+      <c r="D2656" s="14"/>
+      <c r="E2656" s="14"/>
+      <c r="F2656" s="14"/>
+      <c r="G2656" s="14"/>
     </row>
     <row r="2657" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2657" s="10" t="s">
+      <c r="B2657" s="14" t="s">
         <v>5307</v>
       </c>
-      <c r="C2657" s="10"/>
-      <c r="D2657" s="10"/>
-      <c r="E2657" s="10"/>
-      <c r="F2657" s="10"/>
-      <c r="G2657" s="10"/>
+      <c r="C2657" s="14"/>
+      <c r="D2657" s="14"/>
+      <c r="E2657" s="14"/>
+      <c r="F2657" s="14"/>
+      <c r="G2657" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G2646" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -80174,72 +80489,72 @@
       <c r="A1" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="12">
         <f>HYPERLINK(A1,B2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>696</v>
       </c>
@@ -80249,117 +80564,117 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>1348</v>
       </c>
@@ -80369,97 +80684,97 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>1734</v>
       </c>
@@ -80469,42 +80784,42 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>1846</v>
       </c>
@@ -80514,57 +80829,57 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>2004</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>2042</v>
       </c>
@@ -80574,37 +80889,37 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>2056</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>2082</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>2086</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>2142</v>
       </c>
@@ -80614,42 +80929,42 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>2282</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>2300</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>2340</v>
       </c>
@@ -80659,7 +80974,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>2396</v>
       </c>
@@ -80669,222 +80984,222 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>2492</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>2524</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>2652</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>2756</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>2772</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>2790</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>2794</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>2810</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>2844</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>2878</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>2880</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>2886</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>2918</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>2982</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>2992</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>3012</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>3038</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>3086</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>3112</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>3124</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>3138</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>3168</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>3198</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>3216</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>3218</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>3234</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>3236</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>3310</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>3312</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>3326</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>3328</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>3332</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>3390</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>3514</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>3524</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>3530</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>3534</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>3544</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>3662</v>
       </c>
@@ -80894,42 +81209,42 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>3680</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>3708</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>3716</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>3728</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>3730</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>3766</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>3796</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>3808</v>
       </c>
@@ -80939,7 +81254,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>3936</v>
       </c>
@@ -80949,17 +81264,17 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>3966</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>3984</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>3988</v>
       </c>
@@ -80969,22 +81284,22 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>4008</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>4026</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>4064</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>4088</v>
       </c>
@@ -80994,7 +81309,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>4134</v>
       </c>
@@ -81004,42 +81319,42 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>4158</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>4160</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>4162</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>4182</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>4192</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>4218</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>4228</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>4244</v>
       </c>
@@ -81054,152 +81369,152 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>4324</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>4414</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>4416</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>4418</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>4424</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>4426</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>4428</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>4432</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>4434</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>4436</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>4440</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>4442</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>4446</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>4448</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>4450</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>4452</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>4454</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="60" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>4458</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="90" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>4464</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="105" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>4470</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>4472</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>4478</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>4480</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>4482</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>4490</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>4492</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>4496</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>4502</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>4504</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>4508</v>
       </c>
@@ -81209,7 +81524,7 @@
         <v>4676</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>4678</v>
       </c>
@@ -81219,17 +81534,17 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>4682</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>4684</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="45" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>4686</v>
       </c>

--- a/ingest/apc/files/elsevier_publishing_charge.xlsx
+++ b/ingest/apc/files/elsevier_publishing_charge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/casey/PycharmProjects/journalsdb/ingest/apc/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4BDC60-0691-8341-B044-5704AE6456A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1EECF5-B512-3146-961B-1D553D0D1111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="24160" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8842" uniqueCount="5369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8835" uniqueCount="5380">
   <si>
     <t>Article Publishing Charge (APC) price list</t>
   </si>
@@ -16168,6 +16168,39 @@
   </si>
   <si>
     <t>This journal is a peer reviewed, subsidized open access journal where Beijing University of Chinese Medicine pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>However, the Article Publishing Charge (APC) fee will be covered by the "Sociedad Española de Neurología".</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Korean Nuclear Society pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where The Korean Society of Osteoporosis pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, open access journal where Pediatric Hematology Oncology Chapter of Indian Academy of Pediatrics pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Taiwan Pediatric Association ("the Association") pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Brazilian Association for Ecological Science and Conservation (ABECO) pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>Being discontinued</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Chinese Materials Research Society pays the OA fee.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Asian Pacific Prostate Society pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Sociedade Portuguesa de Pneumologia pays for the publishing costs incurred by the journal.</t>
+  </si>
+  <si>
+    <t>This journal is a peer reviewed, subsidized open access journal where the Sociedade Portuguesa de Cardiologia pays for the publishing costs incurred by the journal.</t>
   </si>
 </sst>
 </file>
@@ -16357,11 +16390,11 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -16757,8 +16790,8 @@
   <dimension ref="A1:H2657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1562" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1580" sqref="K1580"/>
+      <pane ySplit="4" topLeftCell="A2233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2249" sqref="J2249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16770,26 +16803,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -54828,7 +54861,7 @@
         <v>282640</v>
       </c>
     </row>
-    <row r="1649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1649" s="3" t="s">
         <v>3301</v>
       </c>
@@ -54851,7 +54884,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1650" s="5" t="s">
         <v>3303</v>
       </c>
@@ -54874,7 +54907,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="1651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1651" s="3" t="s">
         <v>3305</v>
       </c>
@@ -54897,7 +54930,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1652" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1652" s="5" t="s">
         <v>3307</v>
       </c>
@@ -54920,7 +54953,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1653" s="3" t="s">
         <v>3309</v>
       </c>
@@ -54940,8 +54973,11 @@
       <c r="G1653" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1653" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1654" s="5" t="s">
         <v>3311</v>
       </c>
@@ -54961,8 +54997,11 @@
       <c r="G1654" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1654" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1655" s="3" t="s">
         <v>3313</v>
       </c>
@@ -54985,7 +55024,7 @@
         <v>242880</v>
       </c>
     </row>
-    <row r="1656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1656" s="5" t="s">
         <v>3315</v>
       </c>
@@ -55008,7 +55047,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1657" s="3" t="s">
         <v>3317</v>
       </c>
@@ -55031,7 +55070,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1658" s="5" t="s">
         <v>3319</v>
       </c>
@@ -55054,7 +55093,7 @@
         <v>85970</v>
       </c>
     </row>
-    <row r="1659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1659" s="3" t="s">
         <v>3321</v>
       </c>
@@ -55077,7 +55116,7 @@
         <v>187870</v>
       </c>
     </row>
-    <row r="1660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1660" s="5" t="s">
         <v>3323</v>
       </c>
@@ -55100,7 +55139,7 @@
         <v>207410</v>
       </c>
     </row>
-    <row r="1661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1661" s="3" t="s">
         <v>3325</v>
       </c>
@@ -55120,8 +55159,11 @@
       <c r="G1661" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1661" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1662" s="5" t="s">
         <v>3327</v>
       </c>
@@ -55141,8 +55183,11 @@
       <c r="G1662" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1662" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1663" s="3" t="s">
         <v>3329</v>
       </c>
@@ -55165,7 +55210,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1664" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1664" s="5" t="s">
         <v>3331</v>
       </c>
@@ -55185,6 +55230,9 @@
       <c r="G1664" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H1664" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="1665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1665" s="3" t="s">
@@ -55840,8 +55888,8 @@
       <c r="C1693" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1693" s="7" t="s">
-        <v>42</v>
+      <c r="D1693" s="7">
+        <v>2200</v>
       </c>
       <c r="E1693" s="7" t="s">
         <v>42</v>
@@ -57026,7 +57074,7 @@
         <v>328850</v>
       </c>
     </row>
-    <row r="1745" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1745" s="3" t="s">
         <v>3493</v>
       </c>
@@ -57049,7 +57097,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1746" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1746" s="5" t="s">
         <v>3495</v>
       </c>
@@ -57072,7 +57120,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1747" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1747" s="3" t="s">
         <v>3497</v>
       </c>
@@ -57095,7 +57143,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1748" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1748" s="5" t="s">
         <v>3499</v>
       </c>
@@ -57118,7 +57166,7 @@
         <v>229980</v>
       </c>
     </row>
-    <row r="1749" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1749" s="3" t="s">
         <v>3501</v>
       </c>
@@ -57141,7 +57189,7 @@
         <v>956500</v>
       </c>
     </row>
-    <row r="1750" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1750" s="5" t="s">
         <v>3503</v>
       </c>
@@ -57164,7 +57212,7 @@
         <v>360010</v>
       </c>
     </row>
-    <row r="1751" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1751" s="3" t="s">
         <v>3505</v>
       </c>
@@ -57187,7 +57235,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1752" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1752" s="5" t="s">
         <v>3507</v>
       </c>
@@ -57210,7 +57258,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="1753" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1753" s="3" t="s">
         <v>3509</v>
       </c>
@@ -57233,7 +57281,7 @@
         <v>198810</v>
       </c>
     </row>
-    <row r="1754" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1754" s="5" t="s">
         <v>3511</v>
       </c>
@@ -57256,7 +57304,7 @@
         <v>426640</v>
       </c>
     </row>
-    <row r="1755" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1755" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1755" s="3" t="s">
         <v>3513</v>
       </c>
@@ -57276,8 +57324,11 @@
       <c r="G1755" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1755" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1756" s="5" t="s">
         <v>3515</v>
       </c>
@@ -57300,7 +57351,7 @@
         <v>48360</v>
       </c>
     </row>
-    <row r="1757" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1757" s="3" t="s">
         <v>3517</v>
       </c>
@@ -57323,7 +57374,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1758" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1758" s="5" t="s">
         <v>3519</v>
       </c>
@@ -57346,7 +57397,7 @@
         <v>217080</v>
       </c>
     </row>
-    <row r="1759" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1759" s="3" t="s">
         <v>3521</v>
       </c>
@@ -57369,7 +57420,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1760" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1760" s="5" t="s">
         <v>3523</v>
       </c>
@@ -57390,7 +57441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1761" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1761" s="3" t="s">
         <v>3525</v>
       </c>
@@ -57413,7 +57464,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1762" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1762" s="5" t="s">
         <v>3527</v>
       </c>
@@ -57436,7 +57487,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1763" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1763" s="3" t="s">
         <v>3529</v>
       </c>
@@ -57459,7 +57510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1764" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1764" s="5" t="s">
         <v>3531</v>
       </c>
@@ -57482,7 +57533,7 @@
         <v>294460</v>
       </c>
     </row>
-    <row r="1765" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1765" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1765" s="3" t="s">
         <v>3533</v>
       </c>
@@ -57502,8 +57553,11 @@
       <c r="G1765" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1765" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1766" s="5" t="s">
         <v>3535</v>
       </c>
@@ -57526,7 +57580,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1767" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1767" s="3" t="s">
         <v>3537</v>
       </c>
@@ -57549,7 +57603,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1768" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1768" s="5" t="s">
         <v>3539</v>
       </c>
@@ -57572,7 +57626,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1769" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1769" s="3" t="s">
         <v>3541</v>
       </c>
@@ -57595,7 +57649,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1770" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1770" s="5" t="s">
         <v>3543</v>
       </c>
@@ -57615,8 +57669,11 @@
       <c r="G1770" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1770" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1771" s="3" t="s">
         <v>3545</v>
       </c>
@@ -57639,7 +57696,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="1772" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1772" s="5" t="s">
         <v>3547</v>
       </c>
@@ -57662,7 +57719,7 @@
         <v>249320</v>
       </c>
     </row>
-    <row r="1773" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1773" s="3" t="s">
         <v>3549</v>
       </c>
@@ -57685,7 +57742,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1774" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1774" s="5" t="s">
         <v>3551</v>
       </c>
@@ -57708,7 +57765,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="1775" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1775" s="3" t="s">
         <v>3553</v>
       </c>
@@ -57731,7 +57788,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1776" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1776" s="5" t="s">
         <v>3555</v>
       </c>
@@ -58858,7 +58915,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1825" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1825" s="3" t="s">
         <v>3653</v>
       </c>
@@ -58881,7 +58938,7 @@
         <v>237500</v>
       </c>
     </row>
-    <row r="1826" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1826" s="5" t="s">
         <v>3655</v>
       </c>
@@ -58904,7 +58961,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1827" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1827" s="3" t="s">
         <v>3657</v>
       </c>
@@ -58927,7 +58984,7 @@
         <v>161200</v>
       </c>
     </row>
-    <row r="1828" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1828" s="5" t="s">
         <v>3659</v>
       </c>
@@ -58950,7 +59007,7 @@
         <v>249320</v>
       </c>
     </row>
-    <row r="1829" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1829" s="3" t="s">
         <v>3661</v>
       </c>
@@ -58970,8 +59027,11 @@
       <c r="G1829" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1829" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1830" s="5" t="s">
         <v>3663</v>
       </c>
@@ -58994,7 +59054,7 @@
         <v>212780</v>
       </c>
     </row>
-    <row r="1831" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1831" s="3" t="s">
         <v>3665</v>
       </c>
@@ -59017,7 +59077,7 @@
         <v>424490</v>
       </c>
     </row>
-    <row r="1832" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1832" s="5" t="s">
         <v>3667</v>
       </c>
@@ -59040,7 +59100,7 @@
         <v>425570</v>
       </c>
     </row>
-    <row r="1833" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1833" s="3" t="s">
         <v>3669</v>
       </c>
@@ -59063,7 +59123,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1834" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1834" s="5" t="s">
         <v>3671</v>
       </c>
@@ -59086,7 +59146,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1835" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1835" s="3" t="s">
         <v>3673</v>
       </c>
@@ -59109,7 +59169,7 @@
         <v>346040</v>
       </c>
     </row>
-    <row r="1836" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1836" s="5" t="s">
         <v>3675</v>
       </c>
@@ -59132,7 +59192,7 @@
         <v>380430</v>
       </c>
     </row>
-    <row r="1837" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1837" s="3" t="s">
         <v>3677</v>
       </c>
@@ -59142,20 +59202,23 @@
       <c r="C1837" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1837" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1837" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1837" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1837" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1837" s="7">
+        <v>0</v>
+      </c>
+      <c r="E1837" s="7">
+        <v>0</v>
+      </c>
+      <c r="F1837" s="7">
+        <v>0</v>
+      </c>
+      <c r="G1837" s="7">
+        <v>0</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1838" s="5" t="s">
         <v>3679</v>
       </c>
@@ -59165,20 +59228,23 @@
       <c r="C1838" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1838" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1838" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1838" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1838" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1838" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1838" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1838" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1838" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1839" s="3" t="s">
         <v>3681</v>
       </c>
@@ -59201,7 +59267,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1840" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1840" s="5" t="s">
         <v>3683</v>
       </c>
@@ -59224,7 +59290,7 @@
         <v>150450</v>
       </c>
     </row>
-    <row r="1841" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1841" s="3" t="s">
         <v>3685</v>
       </c>
@@ -59247,7 +59313,7 @@
         <v>360010</v>
       </c>
     </row>
-    <row r="1842" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1842" s="5" t="s">
         <v>3687</v>
       </c>
@@ -59270,7 +59336,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1843" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1843" s="3" t="s">
         <v>3689</v>
       </c>
@@ -59293,7 +59359,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1844" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1844" s="5" t="s">
         <v>3691</v>
       </c>
@@ -59316,7 +59382,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1845" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1845" s="3" t="s">
         <v>3693</v>
       </c>
@@ -59339,7 +59405,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1846" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1846" s="5" t="s">
         <v>3695</v>
       </c>
@@ -59362,7 +59428,7 @@
         <v>177320</v>
       </c>
     </row>
-    <row r="1847" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1847" s="3" t="s">
         <v>3697</v>
       </c>
@@ -59385,7 +59451,7 @@
         <v>212780</v>
       </c>
     </row>
-    <row r="1848" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1848" s="5" t="s">
         <v>3699</v>
       </c>
@@ -59408,7 +59474,7 @@
         <v>353570</v>
       </c>
     </row>
-    <row r="1849" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1849" s="3" t="s">
         <v>3701</v>
       </c>
@@ -59431,7 +59497,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="1850" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1850" s="5" t="s">
         <v>3703</v>
       </c>
@@ -59454,7 +59520,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1851" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1851" s="3" t="s">
         <v>3705</v>
       </c>
@@ -59475,7 +59541,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1852" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1852" s="5" t="s">
         <v>3707</v>
       </c>
@@ -59483,8 +59549,8 @@
         <v>3708</v>
       </c>
       <c r="C1852" s="5"/>
-      <c r="D1852" s="8" t="s">
-        <v>42</v>
+      <c r="D1852" s="8">
+        <v>2500</v>
       </c>
       <c r="E1852" s="8" t="s">
         <v>42</v>
@@ -59496,7 +59562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1853" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1853" s="3" t="s">
         <v>3709</v>
       </c>
@@ -59519,7 +59585,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="1854" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1854" s="5" t="s">
         <v>3711</v>
       </c>
@@ -59542,7 +59608,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="1855" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1855" s="3" t="s">
         <v>3713</v>
       </c>
@@ -59565,7 +59631,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1856" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1856" s="5" t="s">
         <v>3715</v>
       </c>
@@ -59575,20 +59641,23 @@
       <c r="C1856" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1856" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1856" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1856" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1856" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1856" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1856" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1856" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1856" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1857" s="3" t="s">
         <v>3717</v>
       </c>
@@ -59611,7 +59680,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1858" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1858" s="5" t="s">
         <v>3719</v>
       </c>
@@ -59634,7 +59703,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1859" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1859" s="3" t="s">
         <v>3721</v>
       </c>
@@ -59657,7 +59726,7 @@
         <v>392250</v>
       </c>
     </row>
-    <row r="1860" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1860" s="5" t="s">
         <v>3723</v>
       </c>
@@ -59680,7 +59749,7 @@
         <v>159560</v>
       </c>
     </row>
-    <row r="1861" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1861" s="3" t="s">
         <v>3725</v>
       </c>
@@ -59703,7 +59772,7 @@
         <v>224610</v>
       </c>
     </row>
-    <row r="1862" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1862" s="5" t="s">
         <v>3727</v>
       </c>
@@ -59713,20 +59782,23 @@
       <c r="C1862" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1862" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1862" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1862" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1862" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1862" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1862" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1862" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1862" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1863" s="3" t="s">
         <v>3729</v>
       </c>
@@ -59746,8 +59818,11 @@
       <c r="G1863" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1863" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1864" s="5" t="s">
         <v>3731</v>
       </c>
@@ -59770,7 +59845,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="1865" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1865" s="3" t="s">
         <v>3733</v>
       </c>
@@ -59793,7 +59868,7 @@
         <v>956500</v>
       </c>
     </row>
-    <row r="1866" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1866" s="5" t="s">
         <v>3735</v>
       </c>
@@ -59816,7 +59891,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1867" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1867" s="3" t="s">
         <v>3737</v>
       </c>
@@ -59839,7 +59914,7 @@
         <v>381510</v>
       </c>
     </row>
-    <row r="1868" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1868" s="5" t="s">
         <v>3739</v>
       </c>
@@ -59862,7 +59937,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1869" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1869" s="3" t="s">
         <v>3741</v>
       </c>
@@ -59885,7 +59960,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="1870" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1870" s="5" t="s">
         <v>3743</v>
       </c>
@@ -59908,7 +59983,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1871" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1871" s="3" t="s">
         <v>3745</v>
       </c>
@@ -59931,7 +60006,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1872" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1872" s="5" t="s">
         <v>3747</v>
       </c>
@@ -59954,7 +60029,7 @@
         <v>466410</v>
       </c>
     </row>
-    <row r="1873" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1873" s="3" t="s">
         <v>3749</v>
       </c>
@@ -59977,7 +60052,7 @@
         <v>297680</v>
       </c>
     </row>
-    <row r="1874" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1874" s="5" t="s">
         <v>3751</v>
       </c>
@@ -60000,7 +60075,7 @@
         <v>263290</v>
       </c>
     </row>
-    <row r="1875" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1875" s="3" t="s">
         <v>3753</v>
       </c>
@@ -60023,7 +60098,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1876" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1876" s="5" t="s">
         <v>3755</v>
       </c>
@@ -60046,7 +60121,7 @@
         <v>362160</v>
       </c>
     </row>
-    <row r="1877" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1877" s="3" t="s">
         <v>3757</v>
       </c>
@@ -60069,7 +60144,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1878" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1878" s="5" t="s">
         <v>3759</v>
       </c>
@@ -60092,7 +60167,7 @@
         <v>212780</v>
       </c>
     </row>
-    <row r="1879" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1879" s="3" t="s">
         <v>3761</v>
       </c>
@@ -60115,7 +60190,7 @@
         <v>236430</v>
       </c>
     </row>
-    <row r="1880" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1880" s="5" t="s">
         <v>3763</v>
       </c>
@@ -60138,7 +60213,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="1881" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1881" s="3" t="s">
         <v>3765</v>
       </c>
@@ -60158,8 +60233,11 @@
       <c r="G1881" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1881" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1882" s="5" t="s">
         <v>3767</v>
       </c>
@@ -60182,7 +60260,7 @@
         <v>332070</v>
       </c>
     </row>
-    <row r="1883" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1883" s="3" t="s">
         <v>3769</v>
       </c>
@@ -60205,7 +60283,7 @@
         <v>195590</v>
       </c>
     </row>
-    <row r="1884" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1884" s="5" t="s">
         <v>3771</v>
       </c>
@@ -60228,7 +60306,7 @@
         <v>150450</v>
       </c>
     </row>
-    <row r="1885" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1885" s="3" t="s">
         <v>3773</v>
       </c>
@@ -60251,7 +60329,7 @@
         <v>134330</v>
       </c>
     </row>
-    <row r="1886" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1886" s="5" t="s">
         <v>3775</v>
       </c>
@@ -60274,7 +60352,7 @@
         <v>263290</v>
       </c>
     </row>
-    <row r="1887" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1887" s="3" t="s">
         <v>3777</v>
       </c>
@@ -60297,7 +60375,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="1888" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1888" s="5" t="s">
         <v>3779</v>
       </c>
@@ -60320,7 +60398,7 @@
         <v>289090</v>
       </c>
     </row>
-    <row r="1889" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1889" s="3" t="s">
         <v>3781</v>
       </c>
@@ -60343,7 +60421,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1890" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1890" s="5" t="s">
         <v>3783</v>
       </c>
@@ -60366,7 +60444,7 @@
         <v>220310</v>
       </c>
     </row>
-    <row r="1891" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1891" s="3" t="s">
         <v>3785</v>
       </c>
@@ -60389,7 +60467,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="1892" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1892" s="5" t="s">
         <v>3787</v>
       </c>
@@ -60412,7 +60490,7 @@
         <v>266520</v>
       </c>
     </row>
-    <row r="1893" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1893" s="3" t="s">
         <v>3789</v>
       </c>
@@ -60435,7 +60513,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1894" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1894" s="5" t="s">
         <v>3791</v>
       </c>
@@ -60458,7 +60536,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1895" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1895" s="3" t="s">
         <v>3793</v>
       </c>
@@ -60481,7 +60559,7 @@
         <v>250400</v>
       </c>
     </row>
-    <row r="1896" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1896" s="5" t="s">
         <v>3795</v>
       </c>
@@ -60491,20 +60569,23 @@
       <c r="C1896" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1896" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1896" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1896" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1896" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="D1896" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1896" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1896" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1896" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A1897" s="3" t="s">
         <v>3797</v>
       </c>
@@ -60527,7 +60608,7 @@
         <v>289090</v>
       </c>
     </row>
-    <row r="1898" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="1898" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A1898" s="5" t="s">
         <v>3799</v>
       </c>
@@ -60550,7 +60631,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1899" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1899" s="3" t="s">
         <v>3801</v>
       </c>
@@ -60573,7 +60654,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="1900" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1900" s="5" t="s">
         <v>3803</v>
       </c>
@@ -60596,7 +60677,7 @@
         <v>351420</v>
       </c>
     </row>
-    <row r="1901" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1901" s="3" t="s">
         <v>3805</v>
       </c>
@@ -60619,7 +60700,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="1902" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1902" s="5" t="s">
         <v>3807</v>
       </c>
@@ -60641,8 +60722,11 @@
       <c r="G1902" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1902" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1903" s="3" t="s">
         <v>3809</v>
       </c>
@@ -60665,7 +60749,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1904" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1904" s="5" t="s">
         <v>3811</v>
       </c>
@@ -60688,7 +60772,7 @@
         <v>406230</v>
       </c>
     </row>
-    <row r="1905" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1905" s="3" t="s">
         <v>3813</v>
       </c>
@@ -60711,7 +60795,7 @@
         <v>263290</v>
       </c>
     </row>
-    <row r="1906" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1906" s="5" t="s">
         <v>3815</v>
       </c>
@@ -60734,7 +60818,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1907" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1907" s="3" t="s">
         <v>3817</v>
       </c>
@@ -60757,7 +60841,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1908" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1908" s="5" t="s">
         <v>3819</v>
       </c>
@@ -60780,7 +60864,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1909" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1909" s="3" t="s">
         <v>3821</v>
       </c>
@@ -60803,7 +60887,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="1910" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1910" s="5" t="s">
         <v>3823</v>
       </c>
@@ -60826,7 +60910,7 @@
         <v>124660</v>
       </c>
     </row>
-    <row r="1911" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1911" s="3" t="s">
         <v>3825</v>
       </c>
@@ -60849,7 +60933,7 @@
         <v>327770</v>
       </c>
     </row>
-    <row r="1912" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1912" s="5" t="s">
         <v>3827</v>
       </c>
@@ -60872,7 +60956,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1913" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1913" s="3" t="s">
         <v>3829</v>
       </c>
@@ -60895,7 +60979,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="1914" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1914" s="5" t="s">
         <v>3831</v>
       </c>
@@ -60918,7 +61002,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1915" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1915" s="3" t="s">
         <v>3833</v>
       </c>
@@ -60941,7 +61025,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1916" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1916" s="5" t="s">
         <v>3835</v>
       </c>
@@ -60964,7 +61048,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1917" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1917" s="3" t="s">
         <v>3837</v>
       </c>
@@ -60987,7 +61071,7 @@
         <v>343890</v>
       </c>
     </row>
-    <row r="1918" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1918" s="5" t="s">
         <v>3839</v>
       </c>
@@ -61010,7 +61094,7 @@
         <v>346040</v>
       </c>
     </row>
-    <row r="1919" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1919" s="3" t="s">
         <v>3841</v>
       </c>
@@ -61033,7 +61117,7 @@
         <v>353570</v>
       </c>
     </row>
-    <row r="1920" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1920" s="5" t="s">
         <v>3843</v>
       </c>
@@ -61054,6 +61138,9 @@
       </c>
       <c r="G1920" s="8" t="s">
         <v>42</v>
+      </c>
+      <c r="H1920" s="11" t="s">
+        <v>5342</v>
       </c>
     </row>
     <row r="1921" spans="1:7" x14ac:dyDescent="0.2">
@@ -61790,7 +61877,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1953" s="3" t="s">
         <v>3909</v>
       </c>
@@ -61813,7 +61900,7 @@
         <v>335300</v>
       </c>
     </row>
-    <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1954" s="5" t="s">
         <v>3911</v>
       </c>
@@ -61836,7 +61923,7 @@
         <v>284790</v>
       </c>
     </row>
-    <row r="1955" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1955" s="3" t="s">
         <v>3913</v>
       </c>
@@ -61859,7 +61946,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1956" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1956" s="5" t="s">
         <v>3915</v>
       </c>
@@ -61882,7 +61969,7 @@
         <v>254700</v>
       </c>
     </row>
-    <row r="1957" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1957" s="3" t="s">
         <v>3917</v>
       </c>
@@ -61905,7 +61992,7 @@
         <v>307360</v>
       </c>
     </row>
-    <row r="1958" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1958" s="5" t="s">
         <v>3919</v>
       </c>
@@ -61928,7 +62015,7 @@
         <v>204190</v>
       </c>
     </row>
-    <row r="1959" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1959" s="3" t="s">
         <v>3921</v>
       </c>
@@ -61951,7 +62038,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="1960" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1960" s="5" t="s">
         <v>3923</v>
       </c>
@@ -61974,7 +62061,7 @@
         <v>263290</v>
       </c>
     </row>
-    <row r="1961" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1961" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1961" s="3" t="s">
         <v>3925</v>
       </c>
@@ -61997,7 +62084,7 @@
         <v>424490</v>
       </c>
     </row>
-    <row r="1962" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1962" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1962" s="5" t="s">
         <v>3927</v>
       </c>
@@ -62020,7 +62107,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="1963" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1963" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1963" s="3" t="s">
         <v>3929</v>
       </c>
@@ -62043,7 +62130,7 @@
         <v>278340</v>
       </c>
     </row>
-    <row r="1964" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1964" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1964" s="5" t="s">
         <v>3931</v>
       </c>
@@ -62066,7 +62153,7 @@
         <v>150450</v>
       </c>
     </row>
-    <row r="1965" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1965" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1965" s="3" t="s">
         <v>3933</v>
       </c>
@@ -62089,7 +62176,7 @@
         <v>254700</v>
       </c>
     </row>
-    <row r="1966" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1966" s="5" t="s">
         <v>3935</v>
       </c>
@@ -62099,20 +62186,23 @@
       <c r="C1966" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1966" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1966" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1966" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1966" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1966" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1966" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1966" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1966" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1967" s="3" t="s">
         <v>3937</v>
       </c>
@@ -62135,7 +62225,7 @@
         <v>348190</v>
       </c>
     </row>
-    <row r="1968" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1968" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1968" s="5" t="s">
         <v>3939</v>
       </c>
@@ -62158,7 +62248,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="1969" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1969" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1969" s="3" t="s">
         <v>3941</v>
       </c>
@@ -62178,8 +62268,11 @@
       <c r="G1969" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1970" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1969" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1970" s="5" t="s">
         <v>3943</v>
       </c>
@@ -62202,7 +62295,7 @@
         <v>212780</v>
       </c>
     </row>
-    <row r="1971" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1971" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1971" s="3" t="s">
         <v>3945</v>
       </c>
@@ -62225,7 +62318,7 @@
         <v>356790</v>
       </c>
     </row>
-    <row r="1972" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1972" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1972" s="5" t="s">
         <v>3947</v>
       </c>
@@ -62248,7 +62341,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="1973" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1973" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1973" s="3" t="s">
         <v>3949</v>
       </c>
@@ -62271,7 +62364,7 @@
         <v>303060</v>
       </c>
     </row>
-    <row r="1974" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1974" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1974" s="5" t="s">
         <v>3951</v>
       </c>
@@ -62294,7 +62387,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="1975" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1975" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1975" s="3" t="s">
         <v>3953</v>
       </c>
@@ -62317,7 +62410,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1976" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1976" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1976" s="5" t="s">
         <v>3955</v>
       </c>
@@ -62340,7 +62433,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1977" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1977" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1977" s="3" t="s">
         <v>3957</v>
       </c>
@@ -62363,7 +62456,7 @@
         <v>279410</v>
       </c>
     </row>
-    <row r="1978" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1978" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1978" s="5" t="s">
         <v>3959</v>
       </c>
@@ -62386,7 +62479,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="1979" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1979" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1979" s="3" t="s">
         <v>3961</v>
       </c>
@@ -62409,7 +62502,7 @@
         <v>295530</v>
       </c>
     </row>
-    <row r="1980" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1980" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1980" s="5" t="s">
         <v>3963</v>
       </c>
@@ -62432,7 +62525,7 @@
         <v>364310</v>
       </c>
     </row>
-    <row r="1981" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1981" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1981" s="3" t="s">
         <v>3965</v>
       </c>
@@ -62442,8 +62535,8 @@
       <c r="C1981" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1981" s="7" t="s">
-        <v>42</v>
+      <c r="D1981" s="7">
+        <v>1000</v>
       </c>
       <c r="E1981" s="7" t="s">
         <v>42</v>
@@ -62455,7 +62548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1982" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1982" s="5" t="s">
         <v>3967</v>
       </c>
@@ -62478,7 +62571,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1983" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1983" s="3" t="s">
         <v>3969</v>
       </c>
@@ -62501,7 +62594,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="1984" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1984" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1984" s="5" t="s">
         <v>3971</v>
       </c>
@@ -62524,7 +62617,7 @@
         <v>255770</v>
       </c>
     </row>
-    <row r="1985" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1985" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1985" s="3" t="s">
         <v>3973</v>
       </c>
@@ -62547,7 +62640,7 @@
         <v>360010</v>
       </c>
     </row>
-    <row r="1986" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1986" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1986" s="5" t="s">
         <v>3975</v>
       </c>
@@ -62570,7 +62663,7 @@
         <v>333150</v>
       </c>
     </row>
-    <row r="1987" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1987" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1987" s="3" t="s">
         <v>3977</v>
       </c>
@@ -62593,7 +62686,7 @@
         <v>236430</v>
       </c>
     </row>
-    <row r="1988" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1988" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1988" s="5" t="s">
         <v>3979</v>
       </c>
@@ -62616,7 +62709,7 @@
         <v>956500</v>
       </c>
     </row>
-    <row r="1989" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1989" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1989" s="3" t="s">
         <v>3981</v>
       </c>
@@ -62639,7 +62732,7 @@
         <v>274040</v>
       </c>
     </row>
-    <row r="1990" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1990" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1990" s="5" t="s">
         <v>3983</v>
       </c>
@@ -62649,20 +62742,23 @@
       <c r="C1990" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1990" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1990" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1990" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1990" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1990" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1990" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1990" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1990" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1990" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1991" s="3" t="s">
         <v>3985</v>
       </c>
@@ -62685,7 +62781,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1992" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1992" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1992" s="5" t="s">
         <v>3987</v>
       </c>
@@ -62695,20 +62791,23 @@
       <c r="C1992" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1992" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1992" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1992" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1992" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1992" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1992" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1992" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1992" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1992" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1993" s="3" t="s">
         <v>3989</v>
       </c>
@@ -62731,7 +62830,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="1994" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1994" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1994" s="5" t="s">
         <v>3991</v>
       </c>
@@ -62751,8 +62850,11 @@
       <c r="G1994" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1995" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1994" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1995" s="3" t="s">
         <v>3993</v>
       </c>
@@ -62775,7 +62877,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="1996" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1996" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1996" s="5" t="s">
         <v>3995</v>
       </c>
@@ -62798,7 +62900,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="1997" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1997" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1997" s="3" t="s">
         <v>3997</v>
       </c>
@@ -62821,7 +62923,7 @@
         <v>249320</v>
       </c>
     </row>
-    <row r="1998" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1998" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1998" s="5" t="s">
         <v>3999</v>
       </c>
@@ -62844,7 +62946,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="1999" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1999" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1999" s="3" t="s">
         <v>4001</v>
       </c>
@@ -62867,7 +62969,7 @@
         <v>263290</v>
       </c>
     </row>
-    <row r="2000" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2000" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2000" s="5" t="s">
         <v>4003</v>
       </c>
@@ -62890,7 +62992,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="2001" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2001" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2001" s="3" t="s">
         <v>4005</v>
       </c>
@@ -62913,7 +63015,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2002" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2002" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2002" s="5" t="s">
         <v>4007</v>
       </c>
@@ -62923,20 +63025,23 @@
       <c r="C2002" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2002" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2002" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2002" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2002" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2002" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2002" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2002" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2002" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2002" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2003" s="3" t="s">
         <v>4009</v>
       </c>
@@ -62959,7 +63064,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="2004" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2004" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2004" s="5" t="s">
         <v>4011</v>
       </c>
@@ -62982,7 +63087,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="2005" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2005" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2005" s="3" t="s">
         <v>4013</v>
       </c>
@@ -63005,7 +63110,7 @@
         <v>377210</v>
       </c>
     </row>
-    <row r="2006" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2006" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2006" s="5" t="s">
         <v>4015</v>
       </c>
@@ -63028,7 +63133,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="2007" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2007" s="3" t="s">
         <v>4017</v>
       </c>
@@ -63051,7 +63156,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="2008" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2008" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2008" s="5" t="s">
         <v>4019</v>
       </c>
@@ -63074,7 +63179,7 @@
         <v>150450</v>
       </c>
     </row>
-    <row r="2009" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2009" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2009" s="3" t="s">
         <v>4021</v>
       </c>
@@ -63097,7 +63202,7 @@
         <v>475000</v>
       </c>
     </row>
-    <row r="2010" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2010" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2010" s="5" t="s">
         <v>4023</v>
       </c>
@@ -63120,7 +63225,7 @@
         <v>303060</v>
       </c>
     </row>
-    <row r="2011" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2011" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2011" s="3" t="s">
         <v>4025</v>
       </c>
@@ -63140,8 +63245,11 @@
       <c r="G2011" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2012" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2011" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2012" s="5" t="s">
         <v>4027</v>
       </c>
@@ -63164,7 +63272,7 @@
         <v>293380</v>
       </c>
     </row>
-    <row r="2013" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2013" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2013" s="3" t="s">
         <v>4029</v>
       </c>
@@ -63187,7 +63295,7 @@
         <v>222460</v>
       </c>
     </row>
-    <row r="2014" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2014" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2014" s="5" t="s">
         <v>4031</v>
       </c>
@@ -63210,7 +63318,7 @@
         <v>347120</v>
       </c>
     </row>
-    <row r="2015" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2015" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2015" s="3" t="s">
         <v>4033</v>
       </c>
@@ -63233,7 +63341,7 @@
         <v>266520</v>
       </c>
     </row>
-    <row r="2016" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2016" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2016" s="5" t="s">
         <v>4035</v>
       </c>
@@ -63256,7 +63364,7 @@
         <v>245020</v>
       </c>
     </row>
-    <row r="2017" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2017" s="3" t="s">
         <v>4037</v>
       </c>
@@ -63279,7 +63387,7 @@
         <v>236430</v>
       </c>
     </row>
-    <row r="2018" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2018" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2018" s="5" t="s">
         <v>4039</v>
       </c>
@@ -63302,7 +63410,7 @@
         <v>246100</v>
       </c>
     </row>
-    <row r="2019" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2019" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2019" s="3" t="s">
         <v>4041</v>
       </c>
@@ -63325,7 +63433,7 @@
         <v>264370</v>
       </c>
     </row>
-    <row r="2020" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2020" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2020" s="5" t="s">
         <v>4043</v>
       </c>
@@ -63348,7 +63456,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2021" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2021" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2021" s="3" t="s">
         <v>4045</v>
       </c>
@@ -63371,7 +63479,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="2022" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2022" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2022" s="5" t="s">
         <v>4047</v>
       </c>
@@ -63394,7 +63502,7 @@
         <v>226760</v>
       </c>
     </row>
-    <row r="2023" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2023" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2023" s="3" t="s">
         <v>4049</v>
       </c>
@@ -63417,7 +63525,7 @@
         <v>373990</v>
       </c>
     </row>
-    <row r="2024" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2024" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2024" s="5" t="s">
         <v>4051</v>
       </c>
@@ -63440,7 +63548,7 @@
         <v>299830</v>
       </c>
     </row>
-    <row r="2025" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2025" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2025" s="3" t="s">
         <v>4053</v>
       </c>
@@ -63463,7 +63571,7 @@
         <v>290160</v>
       </c>
     </row>
-    <row r="2026" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2026" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2026" s="5" t="s">
         <v>4055</v>
       </c>
@@ -63486,7 +63594,7 @@
         <v>241800</v>
       </c>
     </row>
-    <row r="2027" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2027" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2027" s="3" t="s">
         <v>4057</v>
       </c>
@@ -63509,7 +63617,7 @@
         <v>187790</v>
       </c>
     </row>
-    <row r="2028" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2028" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2028" s="5" t="s">
         <v>4059</v>
       </c>
@@ -63532,7 +63640,7 @@
         <v>144010</v>
       </c>
     </row>
-    <row r="2029" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2029" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2029" s="3" t="s">
         <v>4061</v>
       </c>
@@ -63555,7 +63663,7 @@
         <v>270820</v>
       </c>
     </row>
-    <row r="2030" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2030" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2030" s="5" t="s">
         <v>4063</v>
       </c>
@@ -63577,8 +63685,11 @@
       <c r="G2030" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2031" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2030" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2031" s="3" t="s">
         <v>4065</v>
       </c>
@@ -63601,7 +63712,7 @@
         <v>386880</v>
       </c>
     </row>
-    <row r="2032" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2032" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2032" s="5" t="s">
         <v>4067</v>
       </c>
@@ -63841,8 +63952,8 @@
       <c r="C2042" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2042" s="8" t="s">
-        <v>42</v>
+      <c r="D2042" s="8">
+        <v>1500</v>
       </c>
       <c r="E2042" s="8" t="s">
         <v>42</v>
@@ -64025,8 +64136,8 @@
       <c r="C2050" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2050" s="8" t="s">
-        <v>42</v>
+      <c r="D2050" s="8">
+        <v>1400</v>
       </c>
       <c r="E2050" s="8" t="s">
         <v>42</v>
@@ -64360,7 +64471,7 @@
         <v>174100</v>
       </c>
     </row>
-    <row r="2065" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2065" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2065" s="3" t="s">
         <v>4133</v>
       </c>
@@ -64380,8 +64491,11 @@
       <c r="G2065" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2066" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2065" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2066" s="5" t="s">
         <v>4135</v>
       </c>
@@ -64404,7 +64518,7 @@
         <v>124660</v>
       </c>
     </row>
-    <row r="2067" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2067" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2067" s="3" t="s">
         <v>4137</v>
       </c>
@@ -64427,7 +64541,7 @@
         <v>329920</v>
       </c>
     </row>
-    <row r="2068" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2068" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2068" s="5" t="s">
         <v>4139</v>
       </c>
@@ -64450,7 +64564,7 @@
         <v>298760</v>
       </c>
     </row>
-    <row r="2069" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2069" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2069" s="3" t="s">
         <v>4141</v>
       </c>
@@ -64473,7 +64587,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2070" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2070" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2070" s="5" t="s">
         <v>4143</v>
       </c>
@@ -64496,7 +64610,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="2071" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2071" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2071" s="3" t="s">
         <v>4145</v>
       </c>
@@ -64519,7 +64633,7 @@
         <v>232130</v>
       </c>
     </row>
-    <row r="2072" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2072" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2072" s="5" t="s">
         <v>4147</v>
       </c>
@@ -64542,7 +64656,7 @@
         <v>370760</v>
       </c>
     </row>
-    <row r="2073" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2073" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2073" s="3" t="s">
         <v>4149</v>
       </c>
@@ -64565,7 +64679,7 @@
         <v>338520</v>
       </c>
     </row>
-    <row r="2074" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2074" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2074" s="5" t="s">
         <v>4151</v>
       </c>
@@ -64588,7 +64702,7 @@
         <v>376130</v>
       </c>
     </row>
-    <row r="2075" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2075" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2075" s="3" t="s">
         <v>4153</v>
       </c>
@@ -64611,7 +64725,7 @@
         <v>299830</v>
       </c>
     </row>
-    <row r="2076" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2076" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2076" s="5" t="s">
         <v>4155</v>
       </c>
@@ -64633,8 +64747,11 @@
       <c r="G2076" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2077" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2076" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2077" s="3" t="s">
         <v>4157</v>
       </c>
@@ -64656,8 +64773,11 @@
       <c r="G2077" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2078" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2077" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A2078" s="5" t="s">
         <v>4159</v>
       </c>
@@ -64679,8 +64799,11 @@
       <c r="G2078" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2079" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2078" s="11" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2079" s="3" t="s">
         <v>4161</v>
       </c>
@@ -64702,8 +64825,11 @@
       <c r="G2079" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2080" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2079" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2080" s="5" t="s">
         <v>4163</v>
       </c>
@@ -64726,7 +64852,7 @@
         <v>320250</v>
       </c>
     </row>
-    <row r="2081" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2081" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2081" s="3" t="s">
         <v>4165</v>
       </c>
@@ -64749,7 +64875,7 @@
         <v>354640</v>
       </c>
     </row>
-    <row r="2082" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2082" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2082" s="5" t="s">
         <v>4167</v>
       </c>
@@ -64772,7 +64898,7 @@
         <v>346040</v>
       </c>
     </row>
-    <row r="2083" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2083" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2083" s="3" t="s">
         <v>4169</v>
       </c>
@@ -64795,7 +64921,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2084" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2084" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2084" s="5" t="s">
         <v>4171</v>
       </c>
@@ -64818,7 +64944,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="2085" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2085" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2085" s="3" t="s">
         <v>4173</v>
       </c>
@@ -64841,7 +64967,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="2086" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2086" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2086" s="5" t="s">
         <v>4175</v>
       </c>
@@ -64864,7 +64990,7 @@
         <v>424490</v>
       </c>
     </row>
-    <row r="2087" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2087" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2087" s="3" t="s">
         <v>4177</v>
       </c>
@@ -64887,7 +65013,7 @@
         <v>327770</v>
       </c>
     </row>
-    <row r="2088" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2088" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2088" s="5" t="s">
         <v>4179</v>
       </c>
@@ -64910,7 +65036,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="2089" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2089" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2089" s="3" t="s">
         <v>4181</v>
       </c>
@@ -64930,8 +65056,11 @@
       <c r="G2089" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2090" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2089" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2090" s="5" t="s">
         <v>4183</v>
       </c>
@@ -64954,7 +65083,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="2091" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2091" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2091" s="3" t="s">
         <v>4185</v>
       </c>
@@ -64977,7 +65106,7 @@
         <v>537340</v>
       </c>
     </row>
-    <row r="2092" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2092" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2092" s="5" t="s">
         <v>4187</v>
       </c>
@@ -65000,7 +65129,7 @@
         <v>537340</v>
       </c>
     </row>
-    <row r="2093" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2093" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2093" s="3" t="s">
         <v>4189</v>
       </c>
@@ -65023,7 +65152,7 @@
         <v>537340</v>
       </c>
     </row>
-    <row r="2094" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2094" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2094" s="5" t="s">
         <v>4191</v>
       </c>
@@ -65033,20 +65162,23 @@
       <c r="C2094" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2094" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2094" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2094" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2094" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2095" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2094" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2094" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2094" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2094" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2094" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2095" s="3" t="s">
         <v>4193</v>
       </c>
@@ -65069,7 +65201,7 @@
         <v>537340</v>
       </c>
     </row>
-    <row r="2096" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2096" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2096" s="5" t="s">
         <v>4195</v>
       </c>
@@ -65092,7 +65224,7 @@
         <v>352490</v>
       </c>
     </row>
-    <row r="2097" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2097" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2097" s="3" t="s">
         <v>4197</v>
       </c>
@@ -65115,7 +65247,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="2098" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2098" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2098" s="5" t="s">
         <v>4199</v>
       </c>
@@ -65138,7 +65270,7 @@
         <v>494350</v>
       </c>
     </row>
-    <row r="2099" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2099" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2099" s="3" t="s">
         <v>4201</v>
       </c>
@@ -65161,7 +65293,7 @@
         <v>397630</v>
       </c>
     </row>
-    <row r="2100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2100" s="5" t="s">
         <v>4203</v>
       </c>
@@ -65184,7 +65316,7 @@
         <v>349270</v>
       </c>
     </row>
-    <row r="2101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2101" s="3" t="s">
         <v>4205</v>
       </c>
@@ -65207,7 +65339,7 @@
         <v>483600</v>
       </c>
     </row>
-    <row r="2102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2102" s="5" t="s">
         <v>4207</v>
       </c>
@@ -65230,7 +65362,7 @@
         <v>297680</v>
       </c>
     </row>
-    <row r="2103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2103" s="3" t="s">
         <v>4209</v>
       </c>
@@ -65253,7 +65385,7 @@
         <v>456730</v>
       </c>
     </row>
-    <row r="2104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2104" s="5" t="s">
         <v>4211</v>
       </c>
@@ -65276,7 +65408,7 @@
         <v>537340</v>
       </c>
     </row>
-    <row r="2105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2105" s="3" t="s">
         <v>4213</v>
       </c>
@@ -65299,7 +65431,7 @@
         <v>401930</v>
       </c>
     </row>
-    <row r="2106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2106" s="5" t="s">
         <v>4215</v>
       </c>
@@ -65322,7 +65454,7 @@
         <v>537340</v>
       </c>
     </row>
-    <row r="2107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2107" s="3" t="s">
         <v>4217</v>
       </c>
@@ -65342,8 +65474,11 @@
       <c r="G2107" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2107" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2108" s="5" t="s">
         <v>4219</v>
       </c>
@@ -65366,7 +65501,7 @@
         <v>430940</v>
       </c>
     </row>
-    <row r="2109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2109" s="3" t="s">
         <v>4221</v>
       </c>
@@ -65389,7 +65524,7 @@
         <v>193440</v>
       </c>
     </row>
-    <row r="2110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2110" s="5" t="s">
         <v>4223</v>
       </c>
@@ -65412,7 +65547,7 @@
         <v>340670</v>
       </c>
     </row>
-    <row r="2111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2111" s="3" t="s">
         <v>4225</v>
       </c>
@@ -65435,7 +65570,7 @@
         <v>323480</v>
       </c>
     </row>
-    <row r="2112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2112" s="5" t="s">
         <v>4227</v>
       </c>
@@ -65445,20 +65580,23 @@
       <c r="C2112" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2112" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2112" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2112" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2112" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2112" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2112" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2112" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2112" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2113" s="3" t="s">
         <v>4229</v>
       </c>
@@ -65481,7 +65619,7 @@
         <v>317030</v>
       </c>
     </row>
-    <row r="2114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2114" s="5" t="s">
         <v>4231</v>
       </c>
@@ -65504,7 +65642,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="2115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2115" s="3" t="s">
         <v>4233</v>
       </c>
@@ -65527,7 +65665,7 @@
         <v>171950</v>
       </c>
     </row>
-    <row r="2116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2116" s="5" t="s">
         <v>4235</v>
       </c>
@@ -65550,7 +65688,7 @@
         <v>311650</v>
       </c>
     </row>
-    <row r="2117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2117" s="3" t="s">
         <v>4237</v>
       </c>
@@ -65573,7 +65711,7 @@
         <v>296610</v>
       </c>
     </row>
-    <row r="2118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2118" s="5" t="s">
         <v>4239</v>
       </c>
@@ -65596,7 +65734,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="2119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2119" s="3" t="s">
         <v>4241</v>
       </c>
@@ -65619,7 +65757,7 @@
         <v>124660</v>
       </c>
     </row>
-    <row r="2120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2120" s="5" t="s">
         <v>4243</v>
       </c>
@@ -65639,8 +65777,11 @@
       <c r="G2120" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2120" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2121" s="3" t="s">
         <v>4245</v>
       </c>
@@ -65663,7 +65804,7 @@
         <v>381510</v>
       </c>
     </row>
-    <row r="2122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2122" s="5" t="s">
         <v>4247</v>
       </c>
@@ -65686,7 +65827,7 @@
         <v>401930</v>
       </c>
     </row>
-    <row r="2123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2123" s="3" t="s">
         <v>4249</v>
       </c>
@@ -65709,7 +65850,7 @@
         <v>300910</v>
       </c>
     </row>
-    <row r="2124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2124" s="5" t="s">
         <v>4251</v>
       </c>
@@ -65732,7 +65873,7 @@
         <v>182690</v>
       </c>
     </row>
-    <row r="2125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2125" s="3" t="s">
         <v>4253</v>
       </c>
@@ -65755,7 +65896,7 @@
         <v>391180</v>
       </c>
     </row>
-    <row r="2126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2126" s="5" t="s">
         <v>4255</v>
       </c>
@@ -65778,7 +65919,7 @@
         <v>318100</v>
       </c>
     </row>
-    <row r="2127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2127" s="3" t="s">
         <v>4257</v>
       </c>
@@ -65788,20 +65929,23 @@
       <c r="C2127" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2127" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2127" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2127" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2127" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2127" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2127" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2127" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2127" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2127" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2128" s="5" t="s">
         <v>4259</v>
       </c>
@@ -66188,7 +66332,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2145" s="3" t="s">
         <v>4293</v>
       </c>
@@ -66209,7 +66353,7 @@
         <v>186990</v>
       </c>
     </row>
-    <row r="2146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2146" s="5" t="s">
         <v>4295</v>
       </c>
@@ -66232,7 +66376,7 @@
         <v>370760</v>
       </c>
     </row>
-    <row r="2147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2147" s="3" t="s">
         <v>4297</v>
       </c>
@@ -66255,7 +66399,7 @@
         <v>118210</v>
       </c>
     </row>
-    <row r="2148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2148" s="5" t="s">
         <v>4299</v>
       </c>
@@ -66278,7 +66422,7 @@
         <v>306280</v>
       </c>
     </row>
-    <row r="2149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2149" s="3" t="s">
         <v>4301</v>
       </c>
@@ -66301,7 +66445,7 @@
         <v>264370</v>
       </c>
     </row>
-    <row r="2150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2150" s="5" t="s">
         <v>4303</v>
       </c>
@@ -66324,7 +66468,7 @@
         <v>382580</v>
       </c>
     </row>
-    <row r="2151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2151" s="3" t="s">
         <v>4305</v>
       </c>
@@ -66344,8 +66488,11 @@
       <c r="G2151" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2151" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2152" s="5" t="s">
         <v>4307</v>
       </c>
@@ -66368,7 +66515,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2153" s="3" t="s">
         <v>4309</v>
       </c>
@@ -66391,7 +66538,7 @@
         <v>386880</v>
       </c>
     </row>
-    <row r="2154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2154" s="5" t="s">
         <v>4311</v>
       </c>
@@ -66414,7 +66561,7 @@
         <v>212780</v>
       </c>
     </row>
-    <row r="2155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2155" s="3" t="s">
         <v>4313</v>
       </c>
@@ -66437,7 +66584,7 @@
         <v>408370</v>
       </c>
     </row>
-    <row r="2156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2156" s="5" t="s">
         <v>4315</v>
       </c>
@@ -66460,7 +66607,7 @@
         <v>452440</v>
       </c>
     </row>
-    <row r="2157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2157" s="3" t="s">
         <v>4317</v>
       </c>
@@ -66483,7 +66630,7 @@
         <v>257920</v>
       </c>
     </row>
-    <row r="2158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2158" s="5" t="s">
         <v>4319</v>
       </c>
@@ -66506,7 +66653,7 @@
         <v>365390</v>
       </c>
     </row>
-    <row r="2159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2159" s="3" t="s">
         <v>4321</v>
       </c>
@@ -66529,7 +66676,7 @@
         <v>150450</v>
       </c>
     </row>
-    <row r="2160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2160" s="5" t="s">
         <v>4323</v>
       </c>
@@ -66549,6 +66696,9 @@
       <c r="G2160" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H2160" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2161" s="3" t="s">
@@ -67284,7 +67434,7 @@
         <v>107470</v>
       </c>
     </row>
-    <row r="2193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2193" s="3" t="s">
         <v>4389</v>
       </c>
@@ -67307,7 +67457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2194" s="5" t="s">
         <v>4391</v>
       </c>
@@ -67330,7 +67480,7 @@
         <v>107470</v>
       </c>
     </row>
-    <row r="2195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2195" s="3" t="s">
         <v>4393</v>
       </c>
@@ -67353,7 +67503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2196" s="5" t="s">
         <v>4395</v>
       </c>
@@ -67376,7 +67526,7 @@
         <v>128960</v>
       </c>
     </row>
-    <row r="2197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2197" s="3" t="s">
         <v>4397</v>
       </c>
@@ -67399,7 +67549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2198" s="5" t="s">
         <v>4399</v>
       </c>
@@ -67422,7 +67572,7 @@
         <v>379360</v>
       </c>
     </row>
-    <row r="2199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2199" s="3" t="s">
         <v>4401</v>
       </c>
@@ -67445,7 +67595,7 @@
         <v>225680</v>
       </c>
     </row>
-    <row r="2200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2200" s="5" t="s">
         <v>4403</v>
       </c>
@@ -67468,7 +67618,7 @@
         <v>247170</v>
       </c>
     </row>
-    <row r="2201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2201" s="3" t="s">
         <v>4405</v>
       </c>
@@ -67491,7 +67641,7 @@
         <v>224610</v>
       </c>
     </row>
-    <row r="2202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2202" s="5" t="s">
         <v>4407</v>
       </c>
@@ -67514,7 +67664,7 @@
         <v>265440</v>
       </c>
     </row>
-    <row r="2203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2203" s="3" t="s">
         <v>4409</v>
       </c>
@@ -67537,7 +67687,7 @@
         <v>331000</v>
       </c>
     </row>
-    <row r="2204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2204" s="5" t="s">
         <v>4411</v>
       </c>
@@ -67560,7 +67710,7 @@
         <v>285860</v>
       </c>
     </row>
-    <row r="2205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2205" s="3" t="s">
         <v>4413</v>
       </c>
@@ -67570,8 +67720,8 @@
       <c r="C2205" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2205" s="7" t="s">
-        <v>42</v>
+      <c r="D2205" s="7">
+        <v>950</v>
       </c>
       <c r="E2205" s="7" t="s">
         <v>42</v>
@@ -67583,7 +67733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2206" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2206" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2206" s="5" t="s">
         <v>4415</v>
       </c>
@@ -67603,8 +67753,11 @@
       <c r="G2206" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2207" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H2206" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2207" s="3" t="s">
         <v>4417</v>
       </c>
@@ -67626,8 +67779,11 @@
       <c r="G2207" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2207" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2208" s="5" t="s">
         <v>4419</v>
       </c>
@@ -67650,7 +67806,7 @@
         <v>375060</v>
       </c>
     </row>
-    <row r="2209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2209" s="3" t="s">
         <v>4421</v>
       </c>
@@ -67673,7 +67829,7 @@
         <v>375060</v>
       </c>
     </row>
-    <row r="2210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2210" s="5" t="s">
         <v>4423</v>
       </c>
@@ -67693,8 +67849,11 @@
       <c r="G2210" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2210" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2211" s="3" t="s">
         <v>4425</v>
       </c>
@@ -67714,8 +67873,11 @@
       <c r="G2211" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2211" s="10" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2212" s="5" t="s">
         <v>4427</v>
       </c>
@@ -67735,8 +67897,11 @@
       <c r="G2212" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2212" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2213" s="3" t="s">
         <v>4429</v>
       </c>
@@ -67757,7 +67922,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="2214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2214" s="5" t="s">
         <v>4431</v>
       </c>
@@ -67777,8 +67942,11 @@
       <c r="G2214" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2214" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2215" s="3" t="s">
         <v>4433</v>
       </c>
@@ -67788,20 +67956,23 @@
       <c r="C2215" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2215" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2215" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2215" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2215" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2215" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2215" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2215" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2215" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2216" s="5" t="s">
         <v>4435</v>
       </c>
@@ -67811,20 +67982,23 @@
       <c r="C2216" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2216" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2216" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2216" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2216" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2216" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2216" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2216" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2216" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2217" s="3" t="s">
         <v>4437</v>
       </c>
@@ -67847,7 +68021,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="2218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2218" s="5" t="s">
         <v>4439</v>
       </c>
@@ -67867,8 +68041,11 @@
       <c r="G2218" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2218" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2219" s="3" t="s">
         <v>4441</v>
       </c>
@@ -67888,8 +68065,11 @@
       <c r="G2219" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2219" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2220" s="5" t="s">
         <v>4443</v>
       </c>
@@ -67912,7 +68092,7 @@
         <v>214930</v>
       </c>
     </row>
-    <row r="2221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2221" s="3" t="s">
         <v>4445</v>
       </c>
@@ -67932,8 +68112,11 @@
       <c r="G2221" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2221" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2222" s="5" t="s">
         <v>4447</v>
       </c>
@@ -67953,8 +68136,11 @@
       <c r="G2222" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2222" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2223" s="3" t="s">
         <v>4449</v>
       </c>
@@ -67974,8 +68160,11 @@
       <c r="G2223" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2223" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2224" s="5" t="s">
         <v>4451</v>
       </c>
@@ -67995,8 +68184,11 @@
       <c r="G2224" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2225" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="H2224" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2225" s="3" t="s">
         <v>4453</v>
       </c>
@@ -68016,8 +68208,11 @@
       <c r="G2225" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2225" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2226" s="5" t="s">
         <v>4455</v>
       </c>
@@ -68040,7 +68235,7 @@
         <v>153680</v>
       </c>
     </row>
-    <row r="2227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2227" s="3" t="s">
         <v>4457</v>
       </c>
@@ -68060,8 +68255,11 @@
       <c r="G2227" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2227" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2228" s="5" t="s">
         <v>4459</v>
       </c>
@@ -68082,7 +68280,7 @@
         <v>252550</v>
       </c>
     </row>
-    <row r="2229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2229" s="3" t="s">
         <v>4461</v>
       </c>
@@ -68105,7 +68303,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="2230" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2230" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2230" s="5" t="s">
         <v>4463</v>
       </c>
@@ -68125,8 +68323,11 @@
       <c r="G2230" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2230" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2231" s="3" t="s">
         <v>4465</v>
       </c>
@@ -68149,7 +68350,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2232" s="5" t="s">
         <v>4467</v>
       </c>
@@ -68170,7 +68371,7 @@
         <v>322400</v>
       </c>
     </row>
-    <row r="2233" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2233" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A2233" s="3" t="s">
         <v>4469</v>
       </c>
@@ -68190,8 +68391,11 @@
       <c r="G2233" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2233" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2234" s="5" t="s">
         <v>4471</v>
       </c>
@@ -68211,8 +68415,11 @@
       <c r="G2234" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2234" s="11" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2235" s="3" t="s">
         <v>4473</v>
       </c>
@@ -68235,7 +68442,7 @@
         <v>204190</v>
       </c>
     </row>
-    <row r="2236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2236" s="5" t="s">
         <v>4475</v>
       </c>
@@ -68258,7 +68465,7 @@
         <v>268670</v>
       </c>
     </row>
-    <row r="2237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2237" s="3" t="s">
         <v>4477</v>
       </c>
@@ -68268,20 +68475,23 @@
       <c r="C2237" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2237" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2237" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2237" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2237" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2237" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2237" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2237" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2237" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2238" s="5" t="s">
         <v>4479</v>
       </c>
@@ -68291,20 +68501,23 @@
       <c r="C2238" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2238" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2238" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2238" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2238" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2238" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2238" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2238" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2238" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2239" s="3" t="s">
         <v>4481</v>
       </c>
@@ -68314,20 +68527,23 @@
       <c r="C2239" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2239" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2239" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2239" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2239" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2239" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2239" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2239" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2239" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2240" s="5" t="s">
         <v>4483</v>
       </c>
@@ -68416,6 +68632,9 @@
       <c r="G2243" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="H2243" s="10" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2244" s="5" t="s">
@@ -68437,6 +68656,9 @@
       <c r="G2244" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H2244" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2245" s="3" t="s">
@@ -68481,6 +68703,9 @@
       <c r="G2246" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H2246" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2247" s="3" t="s">
@@ -68548,6 +68773,9 @@
       <c r="G2249" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="H2249" s="10" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2250" s="5" t="s">
@@ -68569,6 +68797,9 @@
       <c r="G2250" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H2250" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2251" s="3" t="s">
@@ -68613,6 +68844,9 @@
       <c r="G2252" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="H2252" s="11" t="s">
+        <v>5342</v>
+      </c>
     </row>
     <row r="2253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2253" s="3" t="s">
@@ -77696,131 +77930,131 @@
     </row>
     <row r="2647" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2648" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2648" s="14" t="s">
+      <c r="A2648" s="13" t="s">
         <v>5297</v>
       </c>
-      <c r="B2648" s="14"/>
-      <c r="C2648" s="14"/>
-      <c r="D2648" s="14"/>
-      <c r="E2648" s="14"/>
-      <c r="F2648" s="14"/>
-      <c r="G2648" s="14"/>
+      <c r="B2648" s="13"/>
+      <c r="C2648" s="13"/>
+      <c r="D2648" s="13"/>
+      <c r="E2648" s="13"/>
+      <c r="F2648" s="13"/>
+      <c r="G2648" s="13"/>
     </row>
     <row r="2649" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2649" s="1" t="s">
         <v>5298</v>
       </c>
-      <c r="B2649" s="14" t="s">
+      <c r="B2649" s="13" t="s">
         <v>5299</v>
       </c>
-      <c r="C2649" s="14"/>
-      <c r="D2649" s="14"/>
-      <c r="E2649" s="14"/>
-      <c r="F2649" s="14"/>
-      <c r="G2649" s="14"/>
+      <c r="C2649" s="13"/>
+      <c r="D2649" s="13"/>
+      <c r="E2649" s="13"/>
+      <c r="F2649" s="13"/>
+      <c r="G2649" s="13"/>
     </row>
     <row r="2650" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2650" s="14" t="s">
+      <c r="B2650" s="13" t="s">
         <v>5300</v>
       </c>
-      <c r="C2650" s="14"/>
-      <c r="D2650" s="14"/>
-      <c r="E2650" s="14"/>
-      <c r="F2650" s="14"/>
-      <c r="G2650" s="14"/>
+      <c r="C2650" s="13"/>
+      <c r="D2650" s="13"/>
+      <c r="E2650" s="13"/>
+      <c r="F2650" s="13"/>
+      <c r="G2650" s="13"/>
     </row>
     <row r="2651" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2651" s="14" t="s">
+      <c r="B2651" s="13" t="s">
         <v>5301</v>
       </c>
-      <c r="C2651" s="14"/>
-      <c r="D2651" s="14"/>
-      <c r="E2651" s="14"/>
-      <c r="F2651" s="14"/>
-      <c r="G2651" s="14"/>
+      <c r="C2651" s="13"/>
+      <c r="D2651" s="13"/>
+      <c r="E2651" s="13"/>
+      <c r="F2651" s="13"/>
+      <c r="G2651" s="13"/>
     </row>
     <row r="2652" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2652" s="14" t="s">
+      <c r="B2652" s="13" t="s">
         <v>5302</v>
       </c>
-      <c r="C2652" s="14"/>
-      <c r="D2652" s="14"/>
-      <c r="E2652" s="14"/>
-      <c r="F2652" s="14"/>
-      <c r="G2652" s="14"/>
+      <c r="C2652" s="13"/>
+      <c r="D2652" s="13"/>
+      <c r="E2652" s="13"/>
+      <c r="F2652" s="13"/>
+      <c r="G2652" s="13"/>
     </row>
     <row r="2653" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2653" s="14" t="s">
+      <c r="B2653" s="13" t="s">
         <v>5303</v>
       </c>
-      <c r="C2653" s="14"/>
-      <c r="D2653" s="14"/>
-      <c r="E2653" s="14"/>
-      <c r="F2653" s="14"/>
-      <c r="G2653" s="14"/>
+      <c r="C2653" s="13"/>
+      <c r="D2653" s="13"/>
+      <c r="E2653" s="13"/>
+      <c r="F2653" s="13"/>
+      <c r="G2653" s="13"/>
     </row>
     <row r="2654" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2654" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2654" s="14" t="s">
+      <c r="B2654" s="13" t="s">
         <v>5304</v>
       </c>
-      <c r="C2654" s="14"/>
-      <c r="D2654" s="14"/>
-      <c r="E2654" s="14"/>
-      <c r="F2654" s="14"/>
-      <c r="G2654" s="14"/>
+      <c r="C2654" s="13"/>
+      <c r="D2654" s="13"/>
+      <c r="E2654" s="13"/>
+      <c r="F2654" s="13"/>
+      <c r="G2654" s="13"/>
     </row>
     <row r="2655" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2655" s="14" t="s">
+      <c r="B2655" s="13" t="s">
         <v>5305</v>
       </c>
-      <c r="C2655" s="14"/>
-      <c r="D2655" s="14"/>
-      <c r="E2655" s="14"/>
-      <c r="F2655" s="14"/>
-      <c r="G2655" s="14"/>
+      <c r="C2655" s="13"/>
+      <c r="D2655" s="13"/>
+      <c r="E2655" s="13"/>
+      <c r="F2655" s="13"/>
+      <c r="G2655" s="13"/>
     </row>
     <row r="2656" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2656" s="14" t="s">
+      <c r="B2656" s="13" t="s">
         <v>5306</v>
       </c>
-      <c r="C2656" s="14"/>
-      <c r="D2656" s="14"/>
-      <c r="E2656" s="14"/>
-      <c r="F2656" s="14"/>
-      <c r="G2656" s="14"/>
+      <c r="C2656" s="13"/>
+      <c r="D2656" s="13"/>
+      <c r="E2656" s="13"/>
+      <c r="F2656" s="13"/>
+      <c r="G2656" s="13"/>
     </row>
     <row r="2657" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2657" s="14" t="s">
+      <c r="B2657" s="13" t="s">
         <v>5307</v>
       </c>
-      <c r="C2657" s="14"/>
-      <c r="D2657" s="14"/>
-      <c r="E2657" s="14"/>
-      <c r="F2657" s="14"/>
-      <c r="G2657" s="14"/>
+      <c r="C2657" s="13"/>
+      <c r="D2657" s="13"/>
+      <c r="E2657" s="13"/>
+      <c r="F2657" s="13"/>
+      <c r="G2657" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G2646" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="16">
-    <mergeCell ref="B2653:G2653"/>
-    <mergeCell ref="B2654:G2654"/>
-    <mergeCell ref="B2655:G2655"/>
-    <mergeCell ref="B2656:G2656"/>
-    <mergeCell ref="B2657:G2657"/>
-    <mergeCell ref="A2648:G2648"/>
-    <mergeCell ref="B2649:G2649"/>
-    <mergeCell ref="B2650:G2650"/>
-    <mergeCell ref="B2651:G2651"/>
-    <mergeCell ref="B2652:G2652"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A2648:G2648"/>
+    <mergeCell ref="B2649:G2649"/>
+    <mergeCell ref="B2650:G2650"/>
+    <mergeCell ref="B2651:G2651"/>
+    <mergeCell ref="B2652:G2652"/>
+    <mergeCell ref="B2653:G2653"/>
+    <mergeCell ref="B2654:G2654"/>
+    <mergeCell ref="B2655:G2655"/>
+    <mergeCell ref="B2656:G2656"/>
+    <mergeCell ref="B2657:G2657"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
